--- a/anomalousreflectionangle.xlsx
+++ b/anomalousreflectionangle.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13755" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13755" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="0.15" sheetId="8" r:id="rId1"/>
-    <sheet name="0.25" sheetId="1" r:id="rId2"/>
-    <sheet name="0.35" sheetId="7" r:id="rId3"/>
-    <sheet name="0.45" sheetId="11" r:id="rId4"/>
-    <sheet name="0.1" sheetId="12" r:id="rId5"/>
-    <sheet name="0.2" sheetId="15" r:id="rId6"/>
-    <sheet name="0.3" sheetId="14" r:id="rId7"/>
-    <sheet name="0.4" sheetId="13" r:id="rId8"/>
-    <sheet name="0.4 (2)" sheetId="17" r:id="rId9"/>
+    <sheet name="0.05" sheetId="18" r:id="rId1"/>
+    <sheet name="0.15" sheetId="8" r:id="rId2"/>
+    <sheet name="0.25" sheetId="1" r:id="rId3"/>
+    <sheet name="0.35" sheetId="7" r:id="rId4"/>
+    <sheet name="0.45" sheetId="11" r:id="rId5"/>
+    <sheet name="0.1" sheetId="12" r:id="rId6"/>
+    <sheet name="0.2" sheetId="15" r:id="rId7"/>
+    <sheet name="0.3" sheetId="14" r:id="rId8"/>
+    <sheet name="0.4" sheetId="13" r:id="rId9"/>
+    <sheet name="0.4 (2)" sheetId="17" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1540,11 +1542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127254128"/>
-        <c:axId val="127254688"/>
+        <c:axId val="622022768"/>
+        <c:axId val="622023328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127254128"/>
+        <c:axId val="622022768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1588,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127254688"/>
+        <c:crossAx val="622023328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1594,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127254688"/>
+        <c:axId val="622023328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127254128"/>
+        <c:crossAx val="622022768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,7 +1711,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2318,11 +2319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626608208"/>
-        <c:axId val="626608768"/>
+        <c:axId val="623822096"/>
+        <c:axId val="623822656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="626608208"/>
+        <c:axId val="623822096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626608768"/>
+        <c:crossAx val="623822656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2372,7 +2373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626608768"/>
+        <c:axId val="623822656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2424,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626608208"/>
+        <c:crossAx val="623822096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2487,7 +2488,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3106,11 +3106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626611008"/>
-        <c:axId val="626611568"/>
+        <c:axId val="623824896"/>
+        <c:axId val="623825456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="626611008"/>
+        <c:axId val="623824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,7 +3152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626611568"/>
+        <c:crossAx val="623825456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3160,7 +3160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626611568"/>
+        <c:axId val="623825456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626611008"/>
+        <c:crossAx val="623824896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3275,7 +3275,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4061,11 +4060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626613808"/>
-        <c:axId val="626614368"/>
+        <c:axId val="623827696"/>
+        <c:axId val="623984816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="626613808"/>
+        <c:axId val="623827696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,7 +4106,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626614368"/>
+        <c:crossAx val="623984816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,7 +4114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626614368"/>
+        <c:axId val="623984816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626613808"/>
+        <c:crossAx val="623827696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4230,7 +4229,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5016,11 +5014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626616608"/>
-        <c:axId val="626617168"/>
+        <c:axId val="623987056"/>
+        <c:axId val="623987616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="626616608"/>
+        <c:axId val="623987056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +5060,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626617168"/>
+        <c:crossAx val="623987616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5070,7 +5068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626617168"/>
+        <c:axId val="623987616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +5119,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626616608"/>
+        <c:crossAx val="623987056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5185,7 +5183,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5782,11 +5779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626619408"/>
-        <c:axId val="626619968"/>
+        <c:axId val="623989856"/>
+        <c:axId val="623990416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="626619408"/>
+        <c:axId val="623989856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5828,7 +5825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626619968"/>
+        <c:crossAx val="623990416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5836,7 +5833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626619968"/>
+        <c:axId val="623990416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,7 +5884,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626619408"/>
+        <c:crossAx val="623989856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5951,7 +5948,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6530,11 +6526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627294432"/>
-        <c:axId val="627294992"/>
+        <c:axId val="624318880"/>
+        <c:axId val="624319440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="627294432"/>
+        <c:axId val="624318880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,7 +6572,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627294992"/>
+        <c:crossAx val="624319440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6584,7 +6580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627294992"/>
+        <c:axId val="624319440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627294432"/>
+        <c:crossAx val="624318880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6699,7 +6695,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7281,11 +7276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627297232"/>
-        <c:axId val="627297792"/>
+        <c:axId val="624321680"/>
+        <c:axId val="624322240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="627297232"/>
+        <c:axId val="624321680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,7 +7322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627297792"/>
+        <c:crossAx val="624322240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7335,7 +7330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627297792"/>
+        <c:axId val="624322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7386,7 +7381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627297232"/>
+        <c:crossAx val="624321680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7450,7 +7445,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8047,11 +8041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="774929568"/>
-        <c:axId val="774930128"/>
+        <c:axId val="624324480"/>
+        <c:axId val="624325040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="774929568"/>
+        <c:axId val="624324480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8093,7 +8087,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774930128"/>
+        <c:crossAx val="624325040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8101,7 +8095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="774930128"/>
+        <c:axId val="624325040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8152,7 +8146,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774929568"/>
+        <c:crossAx val="624324480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8794,11 +8788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679145728"/>
-        <c:axId val="679146288"/>
+        <c:axId val="625019840"/>
+        <c:axId val="625020400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679145728"/>
+        <c:axId val="625019840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8840,7 +8834,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679146288"/>
+        <c:crossAx val="625020400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8848,7 +8842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679146288"/>
+        <c:axId val="625020400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8899,7 +8893,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679145728"/>
+        <c:crossAx val="625019840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9544,11 +9538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="691140944"/>
-        <c:axId val="691141504"/>
+        <c:axId val="625022640"/>
+        <c:axId val="677893344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="691140944"/>
+        <c:axId val="625022640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9590,7 +9584,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691141504"/>
+        <c:crossAx val="677893344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9598,7 +9592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691141504"/>
+        <c:axId val="677893344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9649,7 +9643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691140944"/>
+        <c:crossAx val="625022640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10519,11 +10513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622350912"/>
-        <c:axId val="622350352"/>
+        <c:axId val="622025568"/>
+        <c:axId val="622026128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622350912"/>
+        <c:axId val="622025568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10565,7 +10559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622350352"/>
+        <c:crossAx val="622026128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10573,7 +10567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622350352"/>
+        <c:axId val="622026128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10624,7 +10618,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622350912"/>
+        <c:crossAx val="622025568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10688,7 +10682,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11285,11 +11278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="678060960"/>
-        <c:axId val="678061520"/>
+        <c:axId val="677895584"/>
+        <c:axId val="677896144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="678060960"/>
+        <c:axId val="677895584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11331,7 +11324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="678061520"/>
+        <c:crossAx val="677896144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11339,7 +11332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="678061520"/>
+        <c:axId val="677896144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11390,7 +11383,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="678060960"/>
+        <c:crossAx val="677895584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12260,11 +12253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622348112"/>
-        <c:axId val="622347552"/>
+        <c:axId val="622028368"/>
+        <c:axId val="622028928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622348112"/>
+        <c:axId val="622028368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12306,7 +12299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622347552"/>
+        <c:crossAx val="622028928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12314,7 +12307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622347552"/>
+        <c:axId val="622028928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12365,7 +12358,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622348112"/>
+        <c:crossAx val="622028368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12602,11 +12595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="620351136"/>
-        <c:axId val="620352816"/>
+        <c:axId val="622713792"/>
+        <c:axId val="622714352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="620351136"/>
+        <c:axId val="622713792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12648,7 +12641,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620352816"/>
+        <c:crossAx val="622714352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12656,7 +12649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="620352816"/>
+        <c:axId val="622714352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12707,7 +12700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620351136"/>
+        <c:crossAx val="622713792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14069,11 +14062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="620335968"/>
-        <c:axId val="620334848"/>
+        <c:axId val="622716592"/>
+        <c:axId val="622717152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="620335968"/>
+        <c:axId val="622716592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14115,7 +14108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620334848"/>
+        <c:crossAx val="622717152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14123,7 +14116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="620334848"/>
+        <c:axId val="622717152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14174,7 +14167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620335968"/>
+        <c:crossAx val="622716592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15536,11 +15529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="620338384"/>
-        <c:axId val="620337264"/>
+        <c:axId val="622719392"/>
+        <c:axId val="622719952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="620338384"/>
+        <c:axId val="622719392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15582,7 +15575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620337264"/>
+        <c:crossAx val="622719952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15590,7 +15583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="620337264"/>
+        <c:axId val="622719952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15641,7 +15634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620338384"/>
+        <c:crossAx val="622719392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17207,11 +17200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="620969712"/>
-        <c:axId val="620972512"/>
+        <c:axId val="622636224"/>
+        <c:axId val="622636784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="620969712"/>
+        <c:axId val="622636224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17253,7 +17246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620972512"/>
+        <c:crossAx val="622636784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17261,7 +17254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="620972512"/>
+        <c:axId val="622636784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17312,7 +17305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620969712"/>
+        <c:crossAx val="622636224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17960,11 +17953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127245376"/>
-        <c:axId val="127151616"/>
+        <c:axId val="622639024"/>
+        <c:axId val="622639584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127245376"/>
+        <c:axId val="622639024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18006,7 +17999,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127151616"/>
+        <c:crossAx val="622639584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18014,7 +18007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127151616"/>
+        <c:axId val="622639584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18065,7 +18058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127245376"/>
+        <c:crossAx val="622639024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18129,7 +18122,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18714,11 +18706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127168672"/>
-        <c:axId val="626605968"/>
+        <c:axId val="622641824"/>
+        <c:axId val="622642384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127168672"/>
+        <c:axId val="622641824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18760,7 +18752,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626605968"/>
+        <c:crossAx val="622642384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18768,7 +18760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626605968"/>
+        <c:axId val="622642384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18819,7 +18811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127168672"/>
+        <c:crossAx val="622641824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30637,10 +30629,5497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C230"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>16500</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-89.078783999999999</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>16520</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-85.984710000000007</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>16540</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-85.014245000000003</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>16560</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-83.999288000000007</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>16580</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-84.009643999999994</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>16600</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-82.986216999999996</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>16620</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-81.999419000000003</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>16640</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-81.999419000000003</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>16660</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-81.002857000000006</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>16680</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-81.002857000000006</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>16700</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-80.035776999999996</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>16720</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-80.015803000000005</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>16740</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-79.027309000000002</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>16760</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-78.996634999999998</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>16780</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-78.330222000000006</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16800</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-77.974992</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16820</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-77.955378999999994</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16840</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-77.010164000000003</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16860</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-76.986931999999996</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>16880</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-76.956573000000006</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>16900</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-76.046368999999999</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>16920</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-76.023822999999993</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>16940</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-75.978819999999999</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>16960</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-75.011322000000007</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>16980</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-75.009287</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>17000</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-74.971495000000004</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>17020</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-75.004643000000002</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>17040</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-74.004168000000007</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>17060</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-74.004168000000007</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>17080</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-74.004168000000007</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>17100</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-72.980174000000005</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>17120</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-73.049706999999998</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>17140</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-73.009281999999999</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>17160</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-73.038293999999993</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>17180</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-72.027809000000005</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>17200</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-72.044184000000001</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>17220</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-71.995838000000006</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>17240</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-71.995838000000006</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>17260</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-71.329927999999995</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>17280</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-71.050944999999999</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>17300</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-70.994107999999997</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>17320</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-70.994107999999997</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>17340</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-70.984318000000002</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>17360</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-70.042749000000001</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>17380</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-70.032229999999998</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>17400</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-70.032229999999998</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>17420</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-69.976097999999993</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>17440</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-69.986058</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>17460</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-69.033009000000007</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>17480</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-68.998839000000004</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>17500</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-68.943293999999995</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>17520</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-68.943293999999995</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>17540</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-68.938978000000006</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>17560</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-68.050528</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>17580</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-68.034137000000001</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>17600</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-68.034137000000001</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>17620</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-68.034137000000001</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>17640</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-67.995125999999999</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>17660</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-67.023111999999998</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>17680</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-67.017064000000005</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>17700</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-67.001544999999993</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>17720</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-67.028521999999995</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>17740</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-67.005595999999997</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>17760</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-66.987409</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>17780</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-66.010936000000001</v>
+      </c>
+      <c r="C65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>17800</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-66.010936000000001</v>
+      </c>
+      <c r="C66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>17820</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-66.010936000000001</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>17840</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-65.999106999999995</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>17860</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-65.969284999999999</v>
+      </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>17880</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-65.035467999999995</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>17900</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-65.023268999999999</v>
+      </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>17920</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-64.983107000000004</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>17940</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-65.009313000000006</v>
+      </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>17960</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-65.009313000000006</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>17980</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-65.035467999999995</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>18000</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-64.979123999999999</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>18020</v>
+      </c>
+      <c r="B77" s="2">
+        <v>-64.011132000000003</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>18040</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-64.023685999999998</v>
+      </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>18060</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-63.972200999999998</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>18080</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-63.997967000000003</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>18100</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-64.023685999999998</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>18120</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-63.972200999999998</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>18140</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-63.027152999999998</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>18160</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-63.029018000000001</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>18180</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-63.003740000000001</v>
+      </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>18200</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-63.003740000000001</v>
+      </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>18220</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-62.978417999999998</v>
+      </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>18240</v>
+      </c>
+      <c r="B88" s="2">
+        <v>-62.978417999999998</v>
+      </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>18260</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-62.976371</v>
+      </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>18280</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-62.012658999999999</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>18300</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-62.030735</v>
+      </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>18320</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-62.013565</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>18340</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-62.001910000000002</v>
+      </c>
+      <c r="C93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>18360</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-61.988711000000002</v>
+      </c>
+      <c r="C94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>18380</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-62.013606000000003</v>
+      </c>
+      <c r="C95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>18400</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-61.977466999999997</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>18420</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-61.043771999999997</v>
+      </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>18440</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-60.997248999999996</v>
+      </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>18460</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-60.994115000000001</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>18480</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-60.994115000000001</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>18500</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-61.042782000000003</v>
+      </c>
+      <c r="C101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>18520</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-61.018467000000001</v>
+      </c>
+      <c r="C102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>18540</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-60.983555000000003</v>
+      </c>
+      <c r="C103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>18560</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-61.002276999999999</v>
+      </c>
+      <c r="C104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>18580</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-60.022036</v>
+      </c>
+      <c r="C105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>18600</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-60.028643000000002</v>
+      </c>
+      <c r="C106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>18620</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-60.005549000000002</v>
+      </c>
+      <c r="C107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>18640</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-59.981679</v>
+      </c>
+      <c r="C108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>18660</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-60.029384</v>
+      </c>
+      <c r="C109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>18680</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-60.029384</v>
+      </c>
+      <c r="C110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>18700</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-60.022015000000003</v>
+      </c>
+      <c r="C111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>18720</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-59.968155000000003</v>
+      </c>
+      <c r="C112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>18740</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-58.989369000000003</v>
+      </c>
+      <c r="C113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>18760</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-59.012886999999999</v>
+      </c>
+      <c r="C114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>18780</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-59.036242999999999</v>
+      </c>
+      <c r="C115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>18800</v>
+      </c>
+      <c r="B116" s="2">
+        <v>-59.036242999999999</v>
+      </c>
+      <c r="C116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>18820</v>
+      </c>
+      <c r="B117" s="2">
+        <v>-59.012886999999999</v>
+      </c>
+      <c r="C117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>18840</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-59.036242999999999</v>
+      </c>
+      <c r="C118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>18860</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-59.022195000000004</v>
+      </c>
+      <c r="C119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>18880</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-59.017457</v>
+      </c>
+      <c r="C120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>18900</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-58.043638999999999</v>
+      </c>
+      <c r="C121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>18920</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-58.049042</v>
+      </c>
+      <c r="C122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>18940</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-58.034736000000002</v>
+      </c>
+      <c r="C123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>18960</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-57.994616999999998</v>
+      </c>
+      <c r="C124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>18980</v>
+      </c>
+      <c r="B125" s="2">
+        <v>-57.994616999999998</v>
+      </c>
+      <c r="C125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>19000</v>
+      </c>
+      <c r="B126" s="2">
+        <v>-57.994616999999998</v>
+      </c>
+      <c r="C126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>19020</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-57.994616999999998</v>
+      </c>
+      <c r="C127">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>19040</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-57.974251000000002</v>
+      </c>
+      <c r="C128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>19060</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-57.982950000000002</v>
+      </c>
+      <c r="C129">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>19080</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-56.999856000000001</v>
+      </c>
+      <c r="C130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>19100</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-57.039093999999999</v>
+      </c>
+      <c r="C131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>19120</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-56.998553000000001</v>
+      </c>
+      <c r="C132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>19140</v>
+      </c>
+      <c r="B133" s="2">
+        <v>-57.020947</v>
+      </c>
+      <c r="C133">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>19160</v>
+      </c>
+      <c r="B134" s="2">
+        <v>-56.998553000000001</v>
+      </c>
+      <c r="C134">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>19180</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-57.043314000000002</v>
+      </c>
+      <c r="C135">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>19200</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-56.998553000000001</v>
+      </c>
+      <c r="C136">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>19220</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-56.970488000000003</v>
+      </c>
+      <c r="C137">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>19240</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-56.988464</v>
+      </c>
+      <c r="C138">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>19260</v>
+      </c>
+      <c r="B139" s="2">
+        <v>-56.024444000000003</v>
+      </c>
+      <c r="C139">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>19280</v>
+      </c>
+      <c r="B140" s="2">
+        <v>-56.015368000000002</v>
+      </c>
+      <c r="C140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>19300</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-56.024444000000003</v>
+      </c>
+      <c r="C141">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>19320</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-56.038691</v>
+      </c>
+      <c r="C142">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>19340</v>
+      </c>
+      <c r="B143" s="2">
+        <v>-56.009673999999997</v>
+      </c>
+      <c r="C143">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>19360</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-56.046303000000002</v>
+      </c>
+      <c r="C144">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>19380</v>
+      </c>
+      <c r="B145" s="2">
+        <v>-56.024444000000003</v>
+      </c>
+      <c r="C145">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>19400</v>
+      </c>
+      <c r="B146" s="2">
+        <v>-55.972976000000003</v>
+      </c>
+      <c r="C146">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>19420</v>
+      </c>
+      <c r="B147" s="2">
+        <v>-56.000976999999999</v>
+      </c>
+      <c r="C147">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>19440</v>
+      </c>
+      <c r="B148" s="2">
+        <v>-55.973832000000002</v>
+      </c>
+      <c r="C148">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>19460</v>
+      </c>
+      <c r="B149" s="2">
+        <v>-55.005833000000003</v>
+      </c>
+      <c r="C149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>19480</v>
+      </c>
+      <c r="B150" s="2">
+        <v>-55.007980000000003</v>
+      </c>
+      <c r="C150">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>19500</v>
+      </c>
+      <c r="B151" s="2">
+        <v>-55.007980000000003</v>
+      </c>
+      <c r="C151">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>19520</v>
+      </c>
+      <c r="B152" s="2">
+        <v>-55.007980000000003</v>
+      </c>
+      <c r="C152">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>19540</v>
+      </c>
+      <c r="B153" s="2">
+        <v>-55.007980000000003</v>
+      </c>
+      <c r="C153">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>19560</v>
+      </c>
+      <c r="B154" s="2">
+        <v>-55.007980000000003</v>
+      </c>
+      <c r="C154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>19580</v>
+      </c>
+      <c r="B155" s="2">
+        <v>-55.007980000000003</v>
+      </c>
+      <c r="C155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>19600</v>
+      </c>
+      <c r="B156" s="2">
+        <v>-54.967213999999998</v>
+      </c>
+      <c r="C156">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>19620</v>
+      </c>
+      <c r="B157" s="2">
+        <v>-55.005797000000001</v>
+      </c>
+      <c r="C157">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>19640</v>
+      </c>
+      <c r="B158" s="2">
+        <v>-55.021073999999999</v>
+      </c>
+      <c r="C158">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>19660</v>
+      </c>
+      <c r="B159" s="2">
+        <v>-54.012695999999998</v>
+      </c>
+      <c r="C159">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>19680</v>
+      </c>
+      <c r="B160" s="2">
+        <v>-54.039515999999999</v>
+      </c>
+      <c r="C160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>19700</v>
+      </c>
+      <c r="B161" s="2">
+        <v>-54.008826999999997</v>
+      </c>
+      <c r="C161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>19720</v>
+      </c>
+      <c r="B162" s="2">
+        <v>-54.018169</v>
+      </c>
+      <c r="C162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>19740</v>
+      </c>
+      <c r="B163" s="2">
+        <v>-54.048475000000003</v>
+      </c>
+      <c r="C163">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>19760</v>
+      </c>
+      <c r="B164" s="2">
+        <v>-54.037061000000001</v>
+      </c>
+      <c r="C164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>19780</v>
+      </c>
+      <c r="B165" s="2">
+        <v>-54.016213999999998</v>
+      </c>
+      <c r="C165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>19800</v>
+      </c>
+      <c r="B166" s="2">
+        <v>-53.991577999999997</v>
+      </c>
+      <c r="C166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>19820</v>
+      </c>
+      <c r="B167" s="2">
+        <v>-54.018186999999998</v>
+      </c>
+      <c r="C167">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>19840</v>
+      </c>
+      <c r="B168" s="2">
+        <v>-54.010863999999998</v>
+      </c>
+      <c r="C168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>19860</v>
+      </c>
+      <c r="B169" s="2">
+        <v>-53.006689000000001</v>
+      </c>
+      <c r="C169">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>19880</v>
+      </c>
+      <c r="B170" s="2">
+        <v>-53.007244999999998</v>
+      </c>
+      <c r="C170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>19900</v>
+      </c>
+      <c r="B171" s="2">
+        <v>-53.022938000000003</v>
+      </c>
+      <c r="C171">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>19920</v>
+      </c>
+      <c r="B172" s="2">
+        <v>-53.017921000000001</v>
+      </c>
+      <c r="C172">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>19940</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-53.028409000000003</v>
+      </c>
+      <c r="C173">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>19960</v>
+      </c>
+      <c r="B174" s="2">
+        <v>-53.023189000000002</v>
+      </c>
+      <c r="C174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>19980</v>
+      </c>
+      <c r="B175" s="2">
+        <v>-53.023189000000002</v>
+      </c>
+      <c r="C175">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>20000</v>
+      </c>
+      <c r="B176" s="2">
+        <v>-53.008066999999997</v>
+      </c>
+      <c r="C176">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>20020</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-53.018104999999998</v>
+      </c>
+      <c r="C177">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>20040</v>
+      </c>
+      <c r="B178" s="2">
+        <v>-53.012199000000003</v>
+      </c>
+      <c r="C178">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>20060</v>
+      </c>
+      <c r="B179" s="2">
+        <v>-52.986097000000001</v>
+      </c>
+      <c r="C179">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>20080</v>
+      </c>
+      <c r="B180" s="2">
+        <v>-51.996468999999998</v>
+      </c>
+      <c r="C180">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>20100</v>
+      </c>
+      <c r="B181" s="2">
+        <v>-52.023178000000001</v>
+      </c>
+      <c r="C181">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>20120</v>
+      </c>
+      <c r="B182" s="2">
+        <v>-52.038504000000003</v>
+      </c>
+      <c r="C182">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>20140</v>
+      </c>
+      <c r="B183" s="2">
+        <v>-52.02561</v>
+      </c>
+      <c r="C183">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>20160</v>
+      </c>
+      <c r="B184" s="2">
+        <v>-52.026012000000001</v>
+      </c>
+      <c r="C184">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>20180</v>
+      </c>
+      <c r="B185" s="2">
+        <v>-52.006238000000003</v>
+      </c>
+      <c r="C185">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>20200</v>
+      </c>
+      <c r="B186" s="2">
+        <v>-52.003720999999999</v>
+      </c>
+      <c r="C186">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>20220</v>
+      </c>
+      <c r="B187" s="2">
+        <v>-52.003720999999999</v>
+      </c>
+      <c r="C187">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>20240</v>
+      </c>
+      <c r="B188" s="2">
+        <v>-51.988250000000001</v>
+      </c>
+      <c r="C188">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>20260</v>
+      </c>
+      <c r="B189" s="2">
+        <v>-52.005617000000001</v>
+      </c>
+      <c r="C189">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>20280</v>
+      </c>
+      <c r="B190" s="2">
+        <v>-52.017564999999998</v>
+      </c>
+      <c r="C190">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>20300</v>
+      </c>
+      <c r="B191" s="2">
+        <v>-52.018000999999998</v>
+      </c>
+      <c r="C191">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>20320</v>
+      </c>
+      <c r="B192" s="2">
+        <v>-51.007407000000001</v>
+      </c>
+      <c r="C192">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>20340</v>
+      </c>
+      <c r="B193" s="2">
+        <v>-51.003585000000001</v>
+      </c>
+      <c r="C193">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>20360</v>
+      </c>
+      <c r="B194" s="2">
+        <v>-51.006127999999997</v>
+      </c>
+      <c r="C194">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>20380</v>
+      </c>
+      <c r="B195" s="2">
+        <v>-51.028545999999999</v>
+      </c>
+      <c r="C195">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>20400</v>
+      </c>
+      <c r="B196" s="2">
+        <v>-51.037426000000004</v>
+      </c>
+      <c r="C196">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>20420</v>
+      </c>
+      <c r="B197" s="2">
+        <v>-51.049427000000001</v>
+      </c>
+      <c r="C197">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>20440</v>
+      </c>
+      <c r="B198" s="2">
+        <v>-51.030206</v>
+      </c>
+      <c r="C198">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>20460</v>
+      </c>
+      <c r="B199" s="2">
+        <v>-51.008186000000002</v>
+      </c>
+      <c r="C199">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>20480</v>
+      </c>
+      <c r="B200" s="2">
+        <v>-50.990608999999999</v>
+      </c>
+      <c r="C200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>20500</v>
+      </c>
+      <c r="B201" s="2">
+        <v>-50.990979000000003</v>
+      </c>
+      <c r="C201">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>20520</v>
+      </c>
+      <c r="B202" s="2">
+        <v>-51.019266000000002</v>
+      </c>
+      <c r="C202">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>20540</v>
+      </c>
+      <c r="B203" s="2">
+        <v>-50.682360000000003</v>
+      </c>
+      <c r="C203">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>20560</v>
+      </c>
+      <c r="B204" s="2">
+        <v>-50.023994999999999</v>
+      </c>
+      <c r="C204">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>20580</v>
+      </c>
+      <c r="B205" s="2">
+        <v>-50.017915000000002</v>
+      </c>
+      <c r="C205">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>20600</v>
+      </c>
+      <c r="B206" s="2">
+        <v>-50.005842000000001</v>
+      </c>
+      <c r="C206">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>20620</v>
+      </c>
+      <c r="B207" s="2">
+        <v>-49.990079999999999</v>
+      </c>
+      <c r="C207">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>20640</v>
+      </c>
+      <c r="B208" s="2">
+        <v>-49.996769</v>
+      </c>
+      <c r="C208">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>20660</v>
+      </c>
+      <c r="B209" s="2">
+        <v>-50.031292999999998</v>
+      </c>
+      <c r="C209">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>20680</v>
+      </c>
+      <c r="B210" s="2">
+        <v>-50.022162999999999</v>
+      </c>
+      <c r="C210">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>20700</v>
+      </c>
+      <c r="B211" s="2">
+        <v>-50.015588999999999</v>
+      </c>
+      <c r="C211">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>20720</v>
+      </c>
+      <c r="B212" s="2">
+        <v>-49.981110999999999</v>
+      </c>
+      <c r="C212">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>20740</v>
+      </c>
+      <c r="B213" s="2">
+        <v>-49.972859999999997</v>
+      </c>
+      <c r="C213">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>20760</v>
+      </c>
+      <c r="B214" s="2">
+        <v>-49.987053000000003</v>
+      </c>
+      <c r="C214">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>20780</v>
+      </c>
+      <c r="B215" s="2">
+        <v>-50.010260000000002</v>
+      </c>
+      <c r="C215">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>20800</v>
+      </c>
+      <c r="B216" s="2">
+        <v>-49.036070000000002</v>
+      </c>
+      <c r="C216">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>20820</v>
+      </c>
+      <c r="B217" s="2">
+        <v>-49.015096999999997</v>
+      </c>
+      <c r="C217">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>20840</v>
+      </c>
+      <c r="B218" s="2">
+        <v>-49.023856000000002</v>
+      </c>
+      <c r="C218">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>20860</v>
+      </c>
+      <c r="B219" s="2">
+        <v>-49.021920999999999</v>
+      </c>
+      <c r="C219">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>20880</v>
+      </c>
+      <c r="B220" s="2">
+        <v>-49.017093000000003</v>
+      </c>
+      <c r="C220">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>20900</v>
+      </c>
+      <c r="B221" s="2">
+        <v>-49.018712000000001</v>
+      </c>
+      <c r="C221">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>20920</v>
+      </c>
+      <c r="B222" s="2">
+        <v>-49.018712000000001</v>
+      </c>
+      <c r="C222">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>20940</v>
+      </c>
+      <c r="B223" s="2">
+        <v>-49.000537999999999</v>
+      </c>
+      <c r="C223">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>20960</v>
+      </c>
+      <c r="B224" s="2">
+        <v>-48.994171000000001</v>
+      </c>
+      <c r="C224">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>20980</v>
+      </c>
+      <c r="B225" s="2">
+        <v>-48.989353000000001</v>
+      </c>
+      <c r="C225">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>21000</v>
+      </c>
+      <c r="B226" s="2">
+        <v>-48.986956999999997</v>
+      </c>
+      <c r="C226">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>21020</v>
+      </c>
+      <c r="B227" s="2">
+        <v>-48.995775999999999</v>
+      </c>
+      <c r="C227">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>21040</v>
+      </c>
+      <c r="B228" s="2">
+        <v>-48.988647</v>
+      </c>
+      <c r="C228">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>21060</v>
+      </c>
+      <c r="B229" s="2">
+        <v>-48.034475999999998</v>
+      </c>
+      <c r="C229">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>21080</v>
+      </c>
+      <c r="B230" s="2">
+        <v>-48.01446</v>
+      </c>
+      <c r="C230">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G223"/>
+  <sheetViews>
+    <sheetView topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S211" sqref="S211"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="19">
+        <v>9000</v>
+      </c>
+      <c r="B1" s="1">
+        <v>71.372864000000007</v>
+      </c>
+      <c r="C1" s="8">
+        <v>1</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
+        <v>9050</v>
+      </c>
+      <c r="B2" s="1">
+        <v>70.948632000000003</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="69"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
+        <v>9100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>70.982765999999998</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
+        <v>9150</v>
+      </c>
+      <c r="B4" s="1">
+        <v>70.982765999999998</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="19">
+        <v>9200</v>
+      </c>
+      <c r="B5" s="1">
+        <v>71.005026000000001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
+        <v>9250</v>
+      </c>
+      <c r="B6" s="1">
+        <v>71.340068000000002</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="69"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
+        <v>9300</v>
+      </c>
+      <c r="B7" s="1">
+        <v>72.013255999999998</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="69"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
+        <v>9350</v>
+      </c>
+      <c r="B8" s="1">
+        <v>71.978707999999997</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="69"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>9400</v>
+      </c>
+      <c r="B9" s="1">
+        <v>71.680622</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
+        <v>9450</v>
+      </c>
+      <c r="B10" s="1">
+        <v>72.013255999999998</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="69"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="19">
+        <v>9500</v>
+      </c>
+      <c r="B11" s="1">
+        <v>72.013255999999998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="69"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
+        <v>9550</v>
+      </c>
+      <c r="B12" s="1">
+        <v>71.978707999999997</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="69"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
+        <v>9600</v>
+      </c>
+      <c r="B13" s="1">
+        <v>72.013255999999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>13</v>
+      </c>
+      <c r="D13" s="69"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>9650</v>
+      </c>
+      <c r="B14" s="1">
+        <v>71.372864000000007</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" s="69"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>9700</v>
+      </c>
+      <c r="B15" s="1">
+        <v>72.047675999999996</v>
+      </c>
+      <c r="C15" s="8">
+        <v>15</v>
+      </c>
+      <c r="D15" s="69"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>9750</v>
+      </c>
+      <c r="B16" s="1">
+        <v>71.978707999999997</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>9800</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-5.6839950999999997</v>
+      </c>
+      <c r="C17" s="8">
+        <v>17</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>9805</v>
+      </c>
+      <c r="B18" s="30">
+        <v>-84.944367999999997</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="32">
+        <v>9810</v>
+      </c>
+      <c r="B19" s="33">
+        <v>-83.038047000000006</v>
+      </c>
+      <c r="C19" s="34">
+        <v>3</v>
+      </c>
+      <c r="D19" s="66"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="32">
+        <v>9815</v>
+      </c>
+      <c r="B20" s="33">
+        <v>-82.383026000000001</v>
+      </c>
+      <c r="C20" s="35">
+        <v>4</v>
+      </c>
+      <c r="D20" s="66"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="32">
+        <v>9820</v>
+      </c>
+      <c r="B21" s="33">
+        <v>-82.362342999999996</v>
+      </c>
+      <c r="C21" s="35">
+        <v>5</v>
+      </c>
+      <c r="D21" s="66"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="32">
+        <v>9825</v>
+      </c>
+      <c r="B22" s="33">
+        <v>-81.270161999999999</v>
+      </c>
+      <c r="C22" s="34">
+        <v>6</v>
+      </c>
+      <c r="D22" s="66"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="32">
+        <v>9830</v>
+      </c>
+      <c r="B23" s="33">
+        <v>-80.071061999999998</v>
+      </c>
+      <c r="C23" s="35">
+        <v>7</v>
+      </c>
+      <c r="D23" s="66"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="32">
+        <v>9835</v>
+      </c>
+      <c r="B24" s="33">
+        <v>-81.021225999999999</v>
+      </c>
+      <c r="C24" s="35">
+        <v>8</v>
+      </c>
+      <c r="D24" s="66"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="32">
+        <v>9840</v>
+      </c>
+      <c r="B25" s="33">
+        <v>-81.005607999999995</v>
+      </c>
+      <c r="C25" s="34">
+        <v>9</v>
+      </c>
+      <c r="D25" s="66"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="36">
+        <v>9845</v>
+      </c>
+      <c r="B26" s="37">
+        <v>-81.005607999999995</v>
+      </c>
+      <c r="C26" s="38">
+        <v>10</v>
+      </c>
+      <c r="D26" s="67"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
+        <v>9850</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-79.89</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
+        <v>9900</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-76.628668000000005</v>
+      </c>
+      <c r="C28" s="8">
+        <v>19</v>
+      </c>
+      <c r="D28" s="72"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="19">
+        <v>9950</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-75.020409999999998</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" s="72"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>10000</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-72.985889</v>
+      </c>
+      <c r="C30" s="8">
+        <v>21</v>
+      </c>
+      <c r="D30" s="72"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="19">
+        <v>10050</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-71.020476000000002</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31" s="72"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="19">
+        <v>10100</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-69.085099999999997</v>
+      </c>
+      <c r="C32" s="8">
+        <v>23</v>
+      </c>
+      <c r="D32" s="72"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="19">
+        <v>10150</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-67.998598000000001</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33" s="72"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="19">
+        <v>10200</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-67.014204000000007</v>
+      </c>
+      <c r="C34" s="8">
+        <v>25</v>
+      </c>
+      <c r="D34" s="72"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="19">
+        <v>10250</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-65.039916000000005</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35" s="72"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="19">
+        <v>10300</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-64.042869999999994</v>
+      </c>
+      <c r="C36" s="8">
+        <v>27</v>
+      </c>
+      <c r="D36" s="72"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="19">
+        <v>10350</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-63.039155999999998</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37" s="72"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="19">
+        <v>10400</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-61.987023000000001</v>
+      </c>
+      <c r="C38" s="8">
+        <v>29</v>
+      </c>
+      <c r="D38" s="72"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="19">
+        <v>10450</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-60.971356999999998</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39" s="72"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="19">
+        <v>10500</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-59.984208000000002</v>
+      </c>
+      <c r="C40" s="8">
+        <v>31</v>
+      </c>
+      <c r="D40" s="72"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="19">
+        <v>10550</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-59.036242999999999</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+      <c r="D41" s="72"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="19">
+        <v>10600</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-57.980944000000001</v>
+      </c>
+      <c r="C42" s="8">
+        <v>33</v>
+      </c>
+      <c r="D42" s="72"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="19">
+        <v>10650</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-57.066259000000002</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43" s="72"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="19">
+        <v>10700</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-56.018265</v>
+      </c>
+      <c r="C44" s="8">
+        <v>35</v>
+      </c>
+      <c r="D44" s="72"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="19">
+        <v>10750</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-55.045886000000003</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45" s="72"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="19">
+        <v>10800</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-54.727888</v>
+      </c>
+      <c r="C46" s="8">
+        <v>37</v>
+      </c>
+      <c r="D46" s="72"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="19">
+        <v>10850</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-53.994301999999998</v>
+      </c>
+      <c r="C47">
+        <v>38</v>
+      </c>
+      <c r="D47" s="72"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="19">
+        <v>10900</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-52.992885000000001</v>
+      </c>
+      <c r="C48" s="8">
+        <v>39</v>
+      </c>
+      <c r="D48" s="72"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="19">
+        <v>10950</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-52.047632</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49" s="72"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="19">
+        <v>11000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-51.037500999999999</v>
+      </c>
+      <c r="C50" s="8">
+        <v>41</v>
+      </c>
+      <c r="D50" s="72"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="19">
+        <v>11050</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-50.996678000000003</v>
+      </c>
+      <c r="C51">
+        <v>42</v>
+      </c>
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="19">
+        <v>11100</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-50.013973</v>
+      </c>
+      <c r="C52" s="8">
+        <v>43</v>
+      </c>
+      <c r="D52" s="72"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="19">
+        <v>11150</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-49.014454999999998</v>
+      </c>
+      <c r="C53">
+        <v>44</v>
+      </c>
+      <c r="D53" s="72"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="19">
+        <v>11200</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-48.97878</v>
+      </c>
+      <c r="C54" s="8">
+        <v>45</v>
+      </c>
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="19">
+        <v>11250</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-48.025100000000002</v>
+      </c>
+      <c r="C55">
+        <v>46</v>
+      </c>
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="19">
+        <v>11300</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-47.045740000000002</v>
+      </c>
+      <c r="C56" s="8">
+        <v>47</v>
+      </c>
+      <c r="D56" s="72"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="19">
+        <v>11350</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-47.055016999999999</v>
+      </c>
+      <c r="C57">
+        <v>48</v>
+      </c>
+      <c r="D57" s="72"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="19">
+        <v>11400</v>
+      </c>
+      <c r="B58" s="1">
+        <v>-46.021078000000003</v>
+      </c>
+      <c r="C58" s="8">
+        <v>49</v>
+      </c>
+      <c r="D58" s="72"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="19">
+        <v>11450</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-45.002963999999999</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59" s="72"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="19">
+        <v>11500</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-44.983477999999998</v>
+      </c>
+      <c r="C60" s="8">
+        <v>51</v>
+      </c>
+      <c r="D60" s="72"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="19">
+        <v>11550</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-44.935617000000001</v>
+      </c>
+      <c r="C61">
+        <v>52</v>
+      </c>
+      <c r="D61" s="72"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="19">
+        <v>11600</v>
+      </c>
+      <c r="B62" s="1">
+        <v>-43.955626000000002</v>
+      </c>
+      <c r="C62" s="8">
+        <v>53</v>
+      </c>
+      <c r="D62" s="72"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
+        <v>11650</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-42.966127</v>
+      </c>
+      <c r="C63">
+        <v>54</v>
+      </c>
+      <c r="D63" s="72"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="19">
+        <v>11700</v>
+      </c>
+      <c r="B64" s="1">
+        <v>-42.972439000000001</v>
+      </c>
+      <c r="C64" s="8">
+        <v>55</v>
+      </c>
+      <c r="D64" s="72"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
+        <v>11750</v>
+      </c>
+      <c r="B65" s="1">
+        <v>-41.952036</v>
+      </c>
+      <c r="C65">
+        <v>56</v>
+      </c>
+      <c r="D65" s="72"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="19">
+        <v>11800</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-41.978206</v>
+      </c>
+      <c r="C66" s="8">
+        <v>57</v>
+      </c>
+      <c r="D66" s="72"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="19">
+        <v>11850</v>
+      </c>
+      <c r="B67" s="1">
+        <v>-41.007480999999999</v>
+      </c>
+      <c r="C67">
+        <v>58</v>
+      </c>
+      <c r="D67" s="72"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="19">
+        <v>11900</v>
+      </c>
+      <c r="B68" s="1">
+        <v>-40.957160000000002</v>
+      </c>
+      <c r="C68" s="8">
+        <v>59</v>
+      </c>
+      <c r="D68" s="72"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
+        <v>11950</v>
+      </c>
+      <c r="B69" s="1">
+        <v>-39.978940000000001</v>
+      </c>
+      <c r="C69">
+        <v>60</v>
+      </c>
+      <c r="D69" s="72"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="19">
+        <v>12000</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-39.954588999999999</v>
+      </c>
+      <c r="C70" s="8">
+        <v>61</v>
+      </c>
+      <c r="D70" s="72"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="19">
+        <v>12050</v>
+      </c>
+      <c r="B71" s="1">
+        <v>-38.977145999999998</v>
+      </c>
+      <c r="C71">
+        <v>62</v>
+      </c>
+      <c r="D71" s="72"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="19">
+        <v>12100</v>
+      </c>
+      <c r="B72" s="1">
+        <v>-38.988349999999997</v>
+      </c>
+      <c r="C72" s="8">
+        <v>63</v>
+      </c>
+      <c r="D72" s="72"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="19">
+        <v>12150</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-37.988109000000001</v>
+      </c>
+      <c r="C73">
+        <v>64</v>
+      </c>
+      <c r="D73" s="72"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="19">
+        <v>12200</v>
+      </c>
+      <c r="B74" s="1">
+        <v>-37.974882000000001</v>
+      </c>
+      <c r="C74" s="8">
+        <v>65</v>
+      </c>
+      <c r="D74" s="72"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="19">
+        <v>12250</v>
+      </c>
+      <c r="B75" s="1">
+        <v>-36.969644000000002</v>
+      </c>
+      <c r="C75">
+        <v>66</v>
+      </c>
+      <c r="D75" s="72"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="19">
+        <v>12300</v>
+      </c>
+      <c r="B76" s="1">
+        <v>-36.977120999999997</v>
+      </c>
+      <c r="C76" s="8">
+        <v>67</v>
+      </c>
+      <c r="D76" s="72"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="19">
+        <v>12350</v>
+      </c>
+      <c r="B77" s="1">
+        <v>-36.307381999999997</v>
+      </c>
+      <c r="C77">
+        <v>68</v>
+      </c>
+      <c r="D77" s="72"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="19">
+        <v>12400</v>
+      </c>
+      <c r="B78" s="1">
+        <v>-35.987065000000001</v>
+      </c>
+      <c r="C78" s="8">
+        <v>69</v>
+      </c>
+      <c r="D78" s="72"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="19">
+        <v>12450</v>
+      </c>
+      <c r="B79" s="1">
+        <v>-35.369999999999997</v>
+      </c>
+      <c r="C79">
+        <v>70</v>
+      </c>
+      <c r="D79" s="72"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="19">
+        <v>12500</v>
+      </c>
+      <c r="B80" s="1">
+        <v>-35.002116000000001</v>
+      </c>
+      <c r="C80" s="8">
+        <v>71</v>
+      </c>
+      <c r="D80" s="72"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="19">
+        <v>12550</v>
+      </c>
+      <c r="B81" s="1">
+        <v>-34.981301000000002</v>
+      </c>
+      <c r="C81">
+        <v>72</v>
+      </c>
+      <c r="D81" s="72"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="19">
+        <v>12600</v>
+      </c>
+      <c r="B82" s="1">
+        <v>-33.974640999999998</v>
+      </c>
+      <c r="C82" s="8">
+        <v>73</v>
+      </c>
+      <c r="D82" s="72"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="19">
+        <v>12650</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-33.960011999999999</v>
+      </c>
+      <c r="C83">
+        <v>74</v>
+      </c>
+      <c r="D83" s="72"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="19">
+        <v>12700</v>
+      </c>
+      <c r="B84" s="1">
+        <v>-33.04</v>
+      </c>
+      <c r="C84" s="8">
+        <v>75</v>
+      </c>
+      <c r="D84" s="72"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="19">
+        <v>12750</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-32.81</v>
+      </c>
+      <c r="C85">
+        <v>76</v>
+      </c>
+      <c r="D85" s="72"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="19">
+        <v>12800</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-32.36</v>
+      </c>
+      <c r="C86" s="8">
+        <v>77</v>
+      </c>
+      <c r="D86" s="72"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="19">
+        <v>12850</v>
+      </c>
+      <c r="B87" s="1">
+        <v>-31.980404</v>
+      </c>
+      <c r="C87">
+        <v>78</v>
+      </c>
+      <c r="D87" s="72"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="19">
+        <v>12900</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-31.996115</v>
+      </c>
+      <c r="C88" s="8">
+        <v>79</v>
+      </c>
+      <c r="D88" s="72"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="19">
+        <v>12950</v>
+      </c>
+      <c r="B89" s="1">
+        <v>-31.340259</v>
+      </c>
+      <c r="C89">
+        <v>80</v>
+      </c>
+      <c r="D89" s="72"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="19">
+        <v>13000</v>
+      </c>
+      <c r="B90" s="1">
+        <v>-31.037016000000001</v>
+      </c>
+      <c r="C90" s="8">
+        <v>81</v>
+      </c>
+      <c r="D90" s="72"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="19">
+        <v>13050</v>
+      </c>
+      <c r="B91" s="1">
+        <v>-30.974346000000001</v>
+      </c>
+      <c r="C91">
+        <v>82</v>
+      </c>
+      <c r="D91" s="72"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="19">
+        <v>13100</v>
+      </c>
+      <c r="B92" s="1">
+        <v>-29.987418000000002</v>
+      </c>
+      <c r="C92" s="8">
+        <v>83</v>
+      </c>
+      <c r="D92" s="72"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="19">
+        <v>13150</v>
+      </c>
+      <c r="B93" s="1">
+        <v>-30.01</v>
+      </c>
+      <c r="C93">
+        <v>84</v>
+      </c>
+      <c r="D93" s="72"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="19">
+        <v>13200</v>
+      </c>
+      <c r="B94" s="1">
+        <v>-29.59</v>
+      </c>
+      <c r="C94" s="8">
+        <v>85</v>
+      </c>
+      <c r="D94" s="72"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="19">
+        <v>13250</v>
+      </c>
+      <c r="B95" s="1">
+        <v>-28.96</v>
+      </c>
+      <c r="C95">
+        <v>86</v>
+      </c>
+      <c r="D95" s="72"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="19">
+        <v>13300</v>
+      </c>
+      <c r="B96" s="1">
+        <v>-28.92</v>
+      </c>
+      <c r="C96" s="8">
+        <v>87</v>
+      </c>
+      <c r="D96" s="72"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="19">
+        <v>13350</v>
+      </c>
+      <c r="B97" s="1">
+        <v>-28.323529000000001</v>
+      </c>
+      <c r="C97">
+        <v>88</v>
+      </c>
+      <c r="D97" s="72"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="19">
+        <v>13400</v>
+      </c>
+      <c r="B98" s="1">
+        <v>-27.998946</v>
+      </c>
+      <c r="C98" s="8">
+        <v>89</v>
+      </c>
+      <c r="D98" s="72"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="19">
+        <v>13450</v>
+      </c>
+      <c r="B99" s="1">
+        <v>-27.321518999999999</v>
+      </c>
+      <c r="C99">
+        <v>90</v>
+      </c>
+      <c r="D99" s="72"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="19">
+        <v>13500</v>
+      </c>
+      <c r="B100" s="1">
+        <v>-26.974502000000001</v>
+      </c>
+      <c r="C100" s="8">
+        <v>91</v>
+      </c>
+      <c r="D100" s="72"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="19">
+        <v>13550</v>
+      </c>
+      <c r="B101" s="1">
+        <v>-27.000969000000001</v>
+      </c>
+      <c r="C101">
+        <v>92</v>
+      </c>
+      <c r="D101" s="72"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="19">
+        <v>13600</v>
+      </c>
+      <c r="B102" s="1">
+        <v>-26.78</v>
+      </c>
+      <c r="C102" s="8">
+        <v>93</v>
+      </c>
+      <c r="D102" s="72"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="19">
+        <v>13650</v>
+      </c>
+      <c r="B103" s="1">
+        <v>-26.06</v>
+      </c>
+      <c r="C103">
+        <v>94</v>
+      </c>
+      <c r="D103" s="72"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="19">
+        <v>13700</v>
+      </c>
+      <c r="B104" s="1">
+        <v>-25.973569000000001</v>
+      </c>
+      <c r="C104" s="8">
+        <v>95</v>
+      </c>
+      <c r="D104" s="72"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="19">
+        <v>13750</v>
+      </c>
+      <c r="B105" s="1">
+        <v>-25.949421999999998</v>
+      </c>
+      <c r="C105">
+        <v>96</v>
+      </c>
+      <c r="D105" s="72"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="19">
+        <v>13800</v>
+      </c>
+      <c r="B106" s="1">
+        <v>-25.54</v>
+      </c>
+      <c r="C106" s="8">
+        <v>97</v>
+      </c>
+      <c r="D106" s="72"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="19">
+        <v>13850</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-24.949442000000001</v>
+      </c>
+      <c r="C107">
+        <v>98</v>
+      </c>
+      <c r="D107" s="72"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="19">
+        <v>13900</v>
+      </c>
+      <c r="B108" s="1">
+        <v>-24.964697999999999</v>
+      </c>
+      <c r="C108" s="8">
+        <v>99</v>
+      </c>
+      <c r="D108" s="72"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="19">
+        <v>13950</v>
+      </c>
+      <c r="B109" s="1">
+        <v>-24.54</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109" s="72"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="19">
+        <v>14000</v>
+      </c>
+      <c r="B110" s="1">
+        <v>-24.22</v>
+      </c>
+      <c r="C110" s="8">
+        <v>101</v>
+      </c>
+      <c r="D110" s="72"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="19">
+        <v>14050</v>
+      </c>
+      <c r="B111" s="1">
+        <v>-23.991171000000001</v>
+      </c>
+      <c r="C111">
+        <v>102</v>
+      </c>
+      <c r="D111" s="72"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="19">
+        <v>14100</v>
+      </c>
+      <c r="B112" s="1">
+        <v>-23.57</v>
+      </c>
+      <c r="C112" s="8">
+        <v>103</v>
+      </c>
+      <c r="D112" s="72"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="19">
+        <v>14150</v>
+      </c>
+      <c r="B113" s="1">
+        <v>-23.32</v>
+      </c>
+      <c r="C113">
+        <v>104</v>
+      </c>
+      <c r="D113" s="72"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="19">
+        <v>14200</v>
+      </c>
+      <c r="B114" s="1">
+        <v>-23.002275999999998</v>
+      </c>
+      <c r="C114" s="8">
+        <v>105</v>
+      </c>
+      <c r="D114" s="72"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="19">
+        <v>14250</v>
+      </c>
+      <c r="B115" s="1">
+        <v>-22.7</v>
+      </c>
+      <c r="C115">
+        <v>106</v>
+      </c>
+      <c r="D115" s="72"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="19">
+        <v>14300</v>
+      </c>
+      <c r="B116" s="1">
+        <v>-22.49</v>
+      </c>
+      <c r="C116" s="8">
+        <v>107</v>
+      </c>
+      <c r="D116" s="72"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="19">
+        <v>14350</v>
+      </c>
+      <c r="B117" s="1">
+        <v>-22.14</v>
+      </c>
+      <c r="C117">
+        <v>108</v>
+      </c>
+      <c r="D117" s="72"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="19">
+        <v>14400</v>
+      </c>
+      <c r="B118" s="1">
+        <v>-21.83</v>
+      </c>
+      <c r="C118" s="8">
+        <v>109</v>
+      </c>
+      <c r="D118" s="72"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="19">
+        <v>14450</v>
+      </c>
+      <c r="B119" s="1">
+        <v>-21.65</v>
+      </c>
+      <c r="C119">
+        <v>110</v>
+      </c>
+      <c r="D119" s="72"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="19">
+        <v>14500</v>
+      </c>
+      <c r="B120" s="1">
+        <v>-21.22</v>
+      </c>
+      <c r="C120" s="8">
+        <v>111</v>
+      </c>
+      <c r="D120" s="72"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="19">
+        <v>14550</v>
+      </c>
+      <c r="B121" s="1">
+        <v>-21.09</v>
+      </c>
+      <c r="C121">
+        <v>112</v>
+      </c>
+      <c r="D121" s="72"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="19">
+        <v>14600</v>
+      </c>
+      <c r="B122" s="1">
+        <v>-20.76</v>
+      </c>
+      <c r="C122" s="8">
+        <v>113</v>
+      </c>
+      <c r="D122" s="72"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="19">
+        <v>14650</v>
+      </c>
+      <c r="B123" s="1">
+        <v>-20.53</v>
+      </c>
+      <c r="C123">
+        <v>114</v>
+      </c>
+      <c r="D123" s="72"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="19">
+        <v>14700</v>
+      </c>
+      <c r="B124" s="1">
+        <v>-20.36</v>
+      </c>
+      <c r="C124" s="8">
+        <v>115</v>
+      </c>
+      <c r="D124" s="72"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="19">
+        <v>14750</v>
+      </c>
+      <c r="B125" s="1">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="C125">
+        <v>116</v>
+      </c>
+      <c r="D125" s="72"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="19">
+        <v>14800</v>
+      </c>
+      <c r="B126" s="1">
+        <v>-19.63</v>
+      </c>
+      <c r="C126" s="8">
+        <v>117</v>
+      </c>
+      <c r="D126" s="72"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="19">
+        <v>14850</v>
+      </c>
+      <c r="B127" s="1">
+        <v>-19.45</v>
+      </c>
+      <c r="C127">
+        <v>118</v>
+      </c>
+      <c r="D127" s="72"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="19">
+        <v>14900</v>
+      </c>
+      <c r="B128" s="1">
+        <v>-19.14</v>
+      </c>
+      <c r="C128" s="8">
+        <v>119</v>
+      </c>
+      <c r="D128" s="72"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="19">
+        <v>14950</v>
+      </c>
+      <c r="B129" s="1">
+        <v>-18.96</v>
+      </c>
+      <c r="C129">
+        <v>120</v>
+      </c>
+      <c r="D129" s="72"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="19">
+        <v>15000</v>
+      </c>
+      <c r="B130" s="1">
+        <v>-18.66</v>
+      </c>
+      <c r="C130" s="8">
+        <v>121</v>
+      </c>
+      <c r="D130" s="72"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="19">
+        <v>15050</v>
+      </c>
+      <c r="B131" s="1">
+        <v>-18.55</v>
+      </c>
+      <c r="C131">
+        <v>122</v>
+      </c>
+      <c r="D131" s="72"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="19">
+        <v>15100</v>
+      </c>
+      <c r="B132" s="1">
+        <v>-18.09</v>
+      </c>
+      <c r="C132" s="8">
+        <v>123</v>
+      </c>
+      <c r="D132" s="72"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="19">
+        <v>15150</v>
+      </c>
+      <c r="B133" s="1">
+        <v>-18.11</v>
+      </c>
+      <c r="C133">
+        <v>124</v>
+      </c>
+      <c r="D133" s="72"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="19">
+        <v>15200</v>
+      </c>
+      <c r="B134" s="1">
+        <v>-17.7</v>
+      </c>
+      <c r="C134" s="8">
+        <v>125</v>
+      </c>
+      <c r="D134" s="72"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="19">
+        <v>15250</v>
+      </c>
+      <c r="B135" s="1">
+        <v>-17.45</v>
+      </c>
+      <c r="C135">
+        <v>126</v>
+      </c>
+      <c r="D135" s="72"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="19">
+        <v>15300</v>
+      </c>
+      <c r="B136" s="1">
+        <v>-17.25</v>
+      </c>
+      <c r="C136" s="8">
+        <v>127</v>
+      </c>
+      <c r="D136" s="72"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="19">
+        <v>15350</v>
+      </c>
+      <c r="B137" s="1">
+        <v>-17.03</v>
+      </c>
+      <c r="C137">
+        <v>128</v>
+      </c>
+      <c r="D137" s="72"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="19">
+        <v>15400</v>
+      </c>
+      <c r="B138" s="1">
+        <v>-16.73</v>
+      </c>
+      <c r="C138" s="8">
+        <v>129</v>
+      </c>
+      <c r="D138" s="72"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="19">
+        <v>15450</v>
+      </c>
+      <c r="B139" s="1">
+        <v>-16.47</v>
+      </c>
+      <c r="C139">
+        <v>130</v>
+      </c>
+      <c r="D139" s="72"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="39">
+        <v>15500</v>
+      </c>
+      <c r="B140" s="40">
+        <v>-16.350000000000001</v>
+      </c>
+      <c r="C140" s="8">
+        <v>131</v>
+      </c>
+      <c r="D140" s="72"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="39">
+        <v>15550</v>
+      </c>
+      <c r="B141" s="40">
+        <v>-15.94</v>
+      </c>
+      <c r="C141" s="8">
+        <v>132</v>
+      </c>
+      <c r="D141" s="72"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="39">
+        <v>15600</v>
+      </c>
+      <c r="B142" s="40">
+        <v>-15.57</v>
+      </c>
+      <c r="C142">
+        <v>133</v>
+      </c>
+      <c r="D142" s="72"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="39">
+        <v>15650</v>
+      </c>
+      <c r="B143" s="40">
+        <v>-15.43</v>
+      </c>
+      <c r="C143" s="8">
+        <v>134</v>
+      </c>
+      <c r="D143" s="72"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="39">
+        <v>15700</v>
+      </c>
+      <c r="B144" s="40">
+        <v>-15.3</v>
+      </c>
+      <c r="C144" s="8">
+        <v>135</v>
+      </c>
+      <c r="D144" s="72"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" s="39">
+        <v>15750</v>
+      </c>
+      <c r="B145" s="40">
+        <v>-15.06</v>
+      </c>
+      <c r="C145">
+        <v>136</v>
+      </c>
+      <c r="D145" s="72"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="39">
+        <v>15800</v>
+      </c>
+      <c r="B146" s="40">
+        <v>-14.88</v>
+      </c>
+      <c r="C146" s="8">
+        <v>137</v>
+      </c>
+      <c r="D146" s="72"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="39">
+        <v>15850</v>
+      </c>
+      <c r="B147" s="40">
+        <v>-14.6</v>
+      </c>
+      <c r="C147" s="8">
+        <v>138</v>
+      </c>
+      <c r="D147" s="72"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="39">
+        <v>15900</v>
+      </c>
+      <c r="B148" s="40">
+        <v>-14.27</v>
+      </c>
+      <c r="C148">
+        <v>139</v>
+      </c>
+      <c r="D148" s="72"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" s="39">
+        <v>15950</v>
+      </c>
+      <c r="B149" s="40">
+        <v>-14.2</v>
+      </c>
+      <c r="C149" s="8">
+        <v>140</v>
+      </c>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" s="39">
+        <v>16000</v>
+      </c>
+      <c r="C150" s="8">
+        <v>141</v>
+      </c>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="39">
+        <v>16050</v>
+      </c>
+      <c r="B151" s="1">
+        <v>-13.83</v>
+      </c>
+      <c r="C151">
+        <v>142</v>
+      </c>
+      <c r="D151" s="19">
+        <v>12</v>
+      </c>
+      <c r="E151" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" s="39">
+        <v>16300</v>
+      </c>
+      <c r="B152" s="1">
+        <v>-12.57</v>
+      </c>
+      <c r="D152" s="19">
+        <v>17</v>
+      </c>
+      <c r="E152" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" s="39">
+        <v>16500</v>
+      </c>
+      <c r="B153" s="1">
+        <v>-11.72</v>
+      </c>
+      <c r="D153" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" s="39">
+        <v>16550</v>
+      </c>
+      <c r="D154" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" s="39">
+        <v>16600</v>
+      </c>
+      <c r="D155" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" s="39">
+        <v>16650</v>
+      </c>
+      <c r="D156" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="39">
+        <v>16700</v>
+      </c>
+      <c r="D157" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" s="39">
+        <v>16750</v>
+      </c>
+      <c r="D158" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" s="39">
+        <v>16800</v>
+      </c>
+      <c r="B159" s="1">
+        <v>-10.58</v>
+      </c>
+      <c r="D159" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" s="39">
+        <v>16850</v>
+      </c>
+      <c r="D160" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="39">
+        <v>16900</v>
+      </c>
+      <c r="D161" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="39">
+        <v>16950</v>
+      </c>
+      <c r="D162" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="39">
+        <v>17000</v>
+      </c>
+      <c r="D163" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="39">
+        <v>17050</v>
+      </c>
+      <c r="D164" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="39">
+        <v>17100</v>
+      </c>
+      <c r="B165" s="1">
+        <v>-9.52</v>
+      </c>
+      <c r="D165" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="39">
+        <v>17150</v>
+      </c>
+      <c r="D166" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="39">
+        <v>17200</v>
+      </c>
+      <c r="D167" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="39">
+        <v>17250</v>
+      </c>
+      <c r="B168" s="1">
+        <v>-8.85</v>
+      </c>
+      <c r="D168" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="39">
+        <v>17300</v>
+      </c>
+      <c r="D169" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="39">
+        <v>17350</v>
+      </c>
+      <c r="D170" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="39">
+        <v>17400</v>
+      </c>
+      <c r="D171" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="39">
+        <v>17450</v>
+      </c>
+      <c r="D172" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="39">
+        <v>17500</v>
+      </c>
+      <c r="B173" s="1">
+        <v>-7.86</v>
+      </c>
+      <c r="D173" s="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="39">
+        <v>17550</v>
+      </c>
+      <c r="D174" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="39">
+        <v>17600</v>
+      </c>
+      <c r="D175" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="39">
+        <v>17650</v>
+      </c>
+      <c r="D176" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="39">
+        <v>17700</v>
+      </c>
+      <c r="D177" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="39">
+        <v>17750</v>
+      </c>
+      <c r="B178" s="1">
+        <v>-6.98</v>
+      </c>
+      <c r="D178" s="19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="39">
+        <v>17800</v>
+      </c>
+      <c r="D179" s="19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="39">
+        <v>17850</v>
+      </c>
+      <c r="D180" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="39">
+        <v>17900</v>
+      </c>
+      <c r="D181" s="19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="39">
+        <v>17950</v>
+      </c>
+      <c r="D182" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="19">
+        <v>18000</v>
+      </c>
+      <c r="B183" s="1">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="19">
+        <v>18050</v>
+      </c>
+      <c r="B184" s="1">
+        <v>-6.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="19">
+        <v>18100</v>
+      </c>
+      <c r="B185" s="1">
+        <v>-5.91</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="19">
+        <v>18150</v>
+      </c>
+      <c r="B186" s="1">
+        <v>-5.61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="19">
+        <v>18200</v>
+      </c>
+      <c r="B187" s="1">
+        <v>-5.55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="19">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="19">
+        <v>18300</v>
+      </c>
+      <c r="B189" s="1">
+        <v>-5.15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="19">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="19">
+        <v>18400</v>
+      </c>
+      <c r="B191" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="19">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="19">
+        <v>18500</v>
+      </c>
+      <c r="B193" s="1">
+        <v>-4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="19">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="19">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="19">
+        <v>18650</v>
+      </c>
+      <c r="B196" s="1">
+        <v>-3.85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="19">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="19">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="19">
+        <v>18800</v>
+      </c>
+      <c r="B199" s="1">
+        <v>-3.53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="19">
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="19">
+        <v>18900</v>
+      </c>
+      <c r="B201" s="1">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="19">
+        <v>18950</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="19">
+        <v>19000</v>
+      </c>
+      <c r="B203" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="19">
+        <v>19050</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="19">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="19">
+        <v>19150</v>
+      </c>
+      <c r="B206" s="1">
+        <v>-2.87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="19">
+        <v>19200</v>
+      </c>
+      <c r="B207" s="1">
+        <v>-2.31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="19">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A209" s="19">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A210" s="19">
+        <v>19350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A211" s="19">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A212" s="19">
+        <v>19450</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A213" s="19">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A214" s="19">
+        <v>19550</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A215" s="19">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A216" s="19">
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A217" s="19">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="19">
+        <v>19750</v>
+      </c>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+    </row>
+    <row r="219" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="19">
+        <v>19800</v>
+      </c>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+    </row>
+    <row r="220" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="19">
+        <v>19850</v>
+      </c>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+    </row>
+    <row r="221" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="19">
+        <v>19900</v>
+      </c>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+    </row>
+    <row r="222" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="19">
+        <v>19950</v>
+      </c>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+    </row>
+    <row r="223" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="19">
+        <v>20000</v>
+      </c>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:D17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="D27:D148"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A1" s="2">
+        <v>5.0000000699999998E-2</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-0.41658072000000002</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>6.0000002400000002E-2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-0.38329278999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>7.0000000300000004E-2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.3610274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>7.9999998200000005E-2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.33890305999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>9.0000003600000003E-2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.31669765999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>9.9999993999999995E-2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.30014848999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>0.109999999</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.28852463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>0.12000000500000001</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-0.27229941000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>0.12999999500000001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-0.25568113999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>0.14000000100000001</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-0.24446329999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>0.149999991</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-0.23324401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>0.15999999600000001</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.22207356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>0.17000000200000001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-0.21108367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>0.179999992</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-0.19977611000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>0.189999998</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.18886644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>0.19999998799999999</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-0.17762834999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>0.209999993</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-0.17199376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>0.219999999</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-0.16110160000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>0.22999998899999999</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-0.15010807000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>0.23999999499999999</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-0.14441119999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>0.24999998500000001</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-0.13330787999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>0.25999999000000001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-0.12792690000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>0.27000001099999998</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-0.12223675000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>0.280000001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-0.11642199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>0.28999999199999998</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-0.10563164999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>0.30000001199999998</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-0.10030153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>0.310000002</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-9.4442951999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>0.31999999299999998</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-8.9141168000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>0.33000001299999998</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-8.3302789000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>0.34000000400000002</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-7.7813637000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>0.34999999399999998</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-7.4097178999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>0.36000001399999998</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-6.8619811000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>0.37000000500000002</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-6.6615908000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>0.37999999499999998</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.16105511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>0.39000001499999998</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.16662049000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>0.40000000600000002</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.17228811999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+    </row>
+    <row r="52" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="7:37" x14ac:dyDescent="0.15">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G75" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233:B241"/>
+    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33645,7 +39124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H405"/>
   <sheetViews>
@@ -38334,7 +43813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M473"/>
   <sheetViews>
@@ -44566,7 +50045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -45395,7 +50874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G169"/>
   <sheetViews>
@@ -47608,7 +53087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
@@ -50036,7 +55515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P236"/>
   <sheetViews>
@@ -52659,11 +58138,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -55112,2406 +60591,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G223"/>
-  <sheetViews>
-    <sheetView topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S211" sqref="S211"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="19">
-        <v>9000</v>
-      </c>
-      <c r="B1" s="1">
-        <v>71.372864000000007</v>
-      </c>
-      <c r="C1" s="8">
-        <v>1</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="19">
-        <v>9050</v>
-      </c>
-      <c r="B2" s="1">
-        <v>70.948632000000003</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="69"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="19">
-        <v>9100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>70.982765999999998</v>
-      </c>
-      <c r="C3" s="8">
-        <v>3</v>
-      </c>
-      <c r="D3" s="69"/>
-    </row>
-    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
-        <v>9150</v>
-      </c>
-      <c r="B4" s="1">
-        <v>70.982765999999998</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="69"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
-        <v>9200</v>
-      </c>
-      <c r="B5" s="1">
-        <v>71.005026000000001</v>
-      </c>
-      <c r="C5" s="8">
-        <v>5</v>
-      </c>
-      <c r="D5" s="69"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="19">
-        <v>9250</v>
-      </c>
-      <c r="B6" s="1">
-        <v>71.340068000000002</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="69"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
-        <v>9300</v>
-      </c>
-      <c r="B7" s="1">
-        <v>72.013255999999998</v>
-      </c>
-      <c r="C7" s="8">
-        <v>7</v>
-      </c>
-      <c r="D7" s="69"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
-        <v>9350</v>
-      </c>
-      <c r="B8" s="1">
-        <v>71.978707999999997</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="69"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
-        <v>9400</v>
-      </c>
-      <c r="B9" s="1">
-        <v>71.680622</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
-        <v>9450</v>
-      </c>
-      <c r="B10" s="1">
-        <v>72.013255999999998</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="69"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="19">
-        <v>9500</v>
-      </c>
-      <c r="B11" s="1">
-        <v>72.013255999999998</v>
-      </c>
-      <c r="C11" s="8">
-        <v>11</v>
-      </c>
-      <c r="D11" s="69"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
-        <v>9550</v>
-      </c>
-      <c r="B12" s="1">
-        <v>71.978707999999997</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" s="69"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
-        <v>9600</v>
-      </c>
-      <c r="B13" s="1">
-        <v>72.013255999999998</v>
-      </c>
-      <c r="C13" s="8">
-        <v>13</v>
-      </c>
-      <c r="D13" s="69"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
-        <v>9650</v>
-      </c>
-      <c r="B14" s="1">
-        <v>71.372864000000007</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14" s="69"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
-        <v>9700</v>
-      </c>
-      <c r="B15" s="1">
-        <v>72.047675999999996</v>
-      </c>
-      <c r="C15" s="8">
-        <v>15</v>
-      </c>
-      <c r="D15" s="69"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
-        <v>9750</v>
-      </c>
-      <c r="B16" s="1">
-        <v>71.978707999999997</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16" s="69"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>9800</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-5.6839950999999997</v>
-      </c>
-      <c r="C17" s="8">
-        <v>17</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
-        <v>9805</v>
-      </c>
-      <c r="B18" s="30">
-        <v>-84.944367999999997</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
-        <v>9810</v>
-      </c>
-      <c r="B19" s="33">
-        <v>-83.038047000000006</v>
-      </c>
-      <c r="C19" s="34">
-        <v>3</v>
-      </c>
-      <c r="D19" s="66"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
-        <v>9815</v>
-      </c>
-      <c r="B20" s="33">
-        <v>-82.383026000000001</v>
-      </c>
-      <c r="C20" s="35">
-        <v>4</v>
-      </c>
-      <c r="D20" s="66"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
-        <v>9820</v>
-      </c>
-      <c r="B21" s="33">
-        <v>-82.362342999999996</v>
-      </c>
-      <c r="C21" s="35">
-        <v>5</v>
-      </c>
-      <c r="D21" s="66"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
-        <v>9825</v>
-      </c>
-      <c r="B22" s="33">
-        <v>-81.270161999999999</v>
-      </c>
-      <c r="C22" s="34">
-        <v>6</v>
-      </c>
-      <c r="D22" s="66"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
-        <v>9830</v>
-      </c>
-      <c r="B23" s="33">
-        <v>-80.071061999999998</v>
-      </c>
-      <c r="C23" s="35">
-        <v>7</v>
-      </c>
-      <c r="D23" s="66"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
-        <v>9835</v>
-      </c>
-      <c r="B24" s="33">
-        <v>-81.021225999999999</v>
-      </c>
-      <c r="C24" s="35">
-        <v>8</v>
-      </c>
-      <c r="D24" s="66"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="32">
-        <v>9840</v>
-      </c>
-      <c r="B25" s="33">
-        <v>-81.005607999999995</v>
-      </c>
-      <c r="C25" s="34">
-        <v>9</v>
-      </c>
-      <c r="D25" s="66"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
-        <v>9845</v>
-      </c>
-      <c r="B26" s="37">
-        <v>-81.005607999999995</v>
-      </c>
-      <c r="C26" s="38">
-        <v>10</v>
-      </c>
-      <c r="D26" s="67"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="19">
-        <v>9850</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-79.89</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="19">
-        <v>9900</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-76.628668000000005</v>
-      </c>
-      <c r="C28" s="8">
-        <v>19</v>
-      </c>
-      <c r="D28" s="72"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="19">
-        <v>9950</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-75.020409999999998</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29" s="72"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
-        <v>10000</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-72.985889</v>
-      </c>
-      <c r="C30" s="8">
-        <v>21</v>
-      </c>
-      <c r="D30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
-        <v>10050</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-71.020476000000002</v>
-      </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31" s="72"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="19">
-        <v>10100</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-69.085099999999997</v>
-      </c>
-      <c r="C32" s="8">
-        <v>23</v>
-      </c>
-      <c r="D32" s="72"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
-        <v>10150</v>
-      </c>
-      <c r="B33" s="1">
-        <v>-67.998598000000001</v>
-      </c>
-      <c r="C33">
-        <v>24</v>
-      </c>
-      <c r="D33" s="72"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="19">
-        <v>10200</v>
-      </c>
-      <c r="B34" s="1">
-        <v>-67.014204000000007</v>
-      </c>
-      <c r="C34" s="8">
-        <v>25</v>
-      </c>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
-        <v>10250</v>
-      </c>
-      <c r="B35" s="1">
-        <v>-65.039916000000005</v>
-      </c>
-      <c r="C35">
-        <v>26</v>
-      </c>
-      <c r="D35" s="72"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="19">
-        <v>10300</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-64.042869999999994</v>
-      </c>
-      <c r="C36" s="8">
-        <v>27</v>
-      </c>
-      <c r="D36" s="72"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
-        <v>10350</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-63.039155999999998</v>
-      </c>
-      <c r="C37">
-        <v>28</v>
-      </c>
-      <c r="D37" s="72"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="19">
-        <v>10400</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-61.987023000000001</v>
-      </c>
-      <c r="C38" s="8">
-        <v>29</v>
-      </c>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="19">
-        <v>10450</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-60.971356999999998</v>
-      </c>
-      <c r="C39">
-        <v>30</v>
-      </c>
-      <c r="D39" s="72"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
-        <v>10500</v>
-      </c>
-      <c r="B40" s="1">
-        <v>-59.984208000000002</v>
-      </c>
-      <c r="C40" s="8">
-        <v>31</v>
-      </c>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="19">
-        <v>10550</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-59.036242999999999</v>
-      </c>
-      <c r="C41">
-        <v>32</v>
-      </c>
-      <c r="D41" s="72"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="19">
-        <v>10600</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-57.980944000000001</v>
-      </c>
-      <c r="C42" s="8">
-        <v>33</v>
-      </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="19">
-        <v>10650</v>
-      </c>
-      <c r="B43" s="1">
-        <v>-57.066259000000002</v>
-      </c>
-      <c r="C43">
-        <v>34</v>
-      </c>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="19">
-        <v>10700</v>
-      </c>
-      <c r="B44" s="1">
-        <v>-56.018265</v>
-      </c>
-      <c r="C44" s="8">
-        <v>35</v>
-      </c>
-      <c r="D44" s="72"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="19">
-        <v>10750</v>
-      </c>
-      <c r="B45" s="1">
-        <v>-55.045886000000003</v>
-      </c>
-      <c r="C45">
-        <v>36</v>
-      </c>
-      <c r="D45" s="72"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="19">
-        <v>10800</v>
-      </c>
-      <c r="B46" s="1">
-        <v>-54.727888</v>
-      </c>
-      <c r="C46" s="8">
-        <v>37</v>
-      </c>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="19">
-        <v>10850</v>
-      </c>
-      <c r="B47" s="1">
-        <v>-53.994301999999998</v>
-      </c>
-      <c r="C47">
-        <v>38</v>
-      </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="19">
-        <v>10900</v>
-      </c>
-      <c r="B48" s="1">
-        <v>-52.992885000000001</v>
-      </c>
-      <c r="C48" s="8">
-        <v>39</v>
-      </c>
-      <c r="D48" s="72"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="19">
-        <v>10950</v>
-      </c>
-      <c r="B49" s="1">
-        <v>-52.047632</v>
-      </c>
-      <c r="C49">
-        <v>40</v>
-      </c>
-      <c r="D49" s="72"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="19">
-        <v>11000</v>
-      </c>
-      <c r="B50" s="1">
-        <v>-51.037500999999999</v>
-      </c>
-      <c r="C50" s="8">
-        <v>41</v>
-      </c>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="19">
-        <v>11050</v>
-      </c>
-      <c r="B51" s="1">
-        <v>-50.996678000000003</v>
-      </c>
-      <c r="C51">
-        <v>42</v>
-      </c>
-      <c r="D51" s="72"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="19">
-        <v>11100</v>
-      </c>
-      <c r="B52" s="1">
-        <v>-50.013973</v>
-      </c>
-      <c r="C52" s="8">
-        <v>43</v>
-      </c>
-      <c r="D52" s="72"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="19">
-        <v>11150</v>
-      </c>
-      <c r="B53" s="1">
-        <v>-49.014454999999998</v>
-      </c>
-      <c r="C53">
-        <v>44</v>
-      </c>
-      <c r="D53" s="72"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="19">
-        <v>11200</v>
-      </c>
-      <c r="B54" s="1">
-        <v>-48.97878</v>
-      </c>
-      <c r="C54" s="8">
-        <v>45</v>
-      </c>
-      <c r="D54" s="72"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="19">
-        <v>11250</v>
-      </c>
-      <c r="B55" s="1">
-        <v>-48.025100000000002</v>
-      </c>
-      <c r="C55">
-        <v>46</v>
-      </c>
-      <c r="D55" s="72"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="19">
-        <v>11300</v>
-      </c>
-      <c r="B56" s="1">
-        <v>-47.045740000000002</v>
-      </c>
-      <c r="C56" s="8">
-        <v>47</v>
-      </c>
-      <c r="D56" s="72"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="19">
-        <v>11350</v>
-      </c>
-      <c r="B57" s="1">
-        <v>-47.055016999999999</v>
-      </c>
-      <c r="C57">
-        <v>48</v>
-      </c>
-      <c r="D57" s="72"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="19">
-        <v>11400</v>
-      </c>
-      <c r="B58" s="1">
-        <v>-46.021078000000003</v>
-      </c>
-      <c r="C58" s="8">
-        <v>49</v>
-      </c>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="19">
-        <v>11450</v>
-      </c>
-      <c r="B59" s="1">
-        <v>-45.002963999999999</v>
-      </c>
-      <c r="C59">
-        <v>50</v>
-      </c>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="19">
-        <v>11500</v>
-      </c>
-      <c r="B60" s="1">
-        <v>-44.983477999999998</v>
-      </c>
-      <c r="C60" s="8">
-        <v>51</v>
-      </c>
-      <c r="D60" s="72"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="19">
-        <v>11550</v>
-      </c>
-      <c r="B61" s="1">
-        <v>-44.935617000000001</v>
-      </c>
-      <c r="C61">
-        <v>52</v>
-      </c>
-      <c r="D61" s="72"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="19">
-        <v>11600</v>
-      </c>
-      <c r="B62" s="1">
-        <v>-43.955626000000002</v>
-      </c>
-      <c r="C62" s="8">
-        <v>53</v>
-      </c>
-      <c r="D62" s="72"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="19">
-        <v>11650</v>
-      </c>
-      <c r="B63" s="1">
-        <v>-42.966127</v>
-      </c>
-      <c r="C63">
-        <v>54</v>
-      </c>
-      <c r="D63" s="72"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="19">
-        <v>11700</v>
-      </c>
-      <c r="B64" s="1">
-        <v>-42.972439000000001</v>
-      </c>
-      <c r="C64" s="8">
-        <v>55</v>
-      </c>
-      <c r="D64" s="72"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="19">
-        <v>11750</v>
-      </c>
-      <c r="B65" s="1">
-        <v>-41.952036</v>
-      </c>
-      <c r="C65">
-        <v>56</v>
-      </c>
-      <c r="D65" s="72"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="19">
-        <v>11800</v>
-      </c>
-      <c r="B66" s="1">
-        <v>-41.978206</v>
-      </c>
-      <c r="C66" s="8">
-        <v>57</v>
-      </c>
-      <c r="D66" s="72"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="19">
-        <v>11850</v>
-      </c>
-      <c r="B67" s="1">
-        <v>-41.007480999999999</v>
-      </c>
-      <c r="C67">
-        <v>58</v>
-      </c>
-      <c r="D67" s="72"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="19">
-        <v>11900</v>
-      </c>
-      <c r="B68" s="1">
-        <v>-40.957160000000002</v>
-      </c>
-      <c r="C68" s="8">
-        <v>59</v>
-      </c>
-      <c r="D68" s="72"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="19">
-        <v>11950</v>
-      </c>
-      <c r="B69" s="1">
-        <v>-39.978940000000001</v>
-      </c>
-      <c r="C69">
-        <v>60</v>
-      </c>
-      <c r="D69" s="72"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="19">
-        <v>12000</v>
-      </c>
-      <c r="B70" s="1">
-        <v>-39.954588999999999</v>
-      </c>
-      <c r="C70" s="8">
-        <v>61</v>
-      </c>
-      <c r="D70" s="72"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="19">
-        <v>12050</v>
-      </c>
-      <c r="B71" s="1">
-        <v>-38.977145999999998</v>
-      </c>
-      <c r="C71">
-        <v>62</v>
-      </c>
-      <c r="D71" s="72"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="19">
-        <v>12100</v>
-      </c>
-      <c r="B72" s="1">
-        <v>-38.988349999999997</v>
-      </c>
-      <c r="C72" s="8">
-        <v>63</v>
-      </c>
-      <c r="D72" s="72"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="19">
-        <v>12150</v>
-      </c>
-      <c r="B73" s="1">
-        <v>-37.988109000000001</v>
-      </c>
-      <c r="C73">
-        <v>64</v>
-      </c>
-      <c r="D73" s="72"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="19">
-        <v>12200</v>
-      </c>
-      <c r="B74" s="1">
-        <v>-37.974882000000001</v>
-      </c>
-      <c r="C74" s="8">
-        <v>65</v>
-      </c>
-      <c r="D74" s="72"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="19">
-        <v>12250</v>
-      </c>
-      <c r="B75" s="1">
-        <v>-36.969644000000002</v>
-      </c>
-      <c r="C75">
-        <v>66</v>
-      </c>
-      <c r="D75" s="72"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="19">
-        <v>12300</v>
-      </c>
-      <c r="B76" s="1">
-        <v>-36.977120999999997</v>
-      </c>
-      <c r="C76" s="8">
-        <v>67</v>
-      </c>
-      <c r="D76" s="72"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="19">
-        <v>12350</v>
-      </c>
-      <c r="B77" s="1">
-        <v>-36.307381999999997</v>
-      </c>
-      <c r="C77">
-        <v>68</v>
-      </c>
-      <c r="D77" s="72"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="19">
-        <v>12400</v>
-      </c>
-      <c r="B78" s="1">
-        <v>-35.987065000000001</v>
-      </c>
-      <c r="C78" s="8">
-        <v>69</v>
-      </c>
-      <c r="D78" s="72"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="19">
-        <v>12450</v>
-      </c>
-      <c r="B79" s="1">
-        <v>-35.369999999999997</v>
-      </c>
-      <c r="C79">
-        <v>70</v>
-      </c>
-      <c r="D79" s="72"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="19">
-        <v>12500</v>
-      </c>
-      <c r="B80" s="1">
-        <v>-35.002116000000001</v>
-      </c>
-      <c r="C80" s="8">
-        <v>71</v>
-      </c>
-      <c r="D80" s="72"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="19">
-        <v>12550</v>
-      </c>
-      <c r="B81" s="1">
-        <v>-34.981301000000002</v>
-      </c>
-      <c r="C81">
-        <v>72</v>
-      </c>
-      <c r="D81" s="72"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="19">
-        <v>12600</v>
-      </c>
-      <c r="B82" s="1">
-        <v>-33.974640999999998</v>
-      </c>
-      <c r="C82" s="8">
-        <v>73</v>
-      </c>
-      <c r="D82" s="72"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="19">
-        <v>12650</v>
-      </c>
-      <c r="B83" s="1">
-        <v>-33.960011999999999</v>
-      </c>
-      <c r="C83">
-        <v>74</v>
-      </c>
-      <c r="D83" s="72"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="19">
-        <v>12700</v>
-      </c>
-      <c r="B84" s="1">
-        <v>-33.04</v>
-      </c>
-      <c r="C84" s="8">
-        <v>75</v>
-      </c>
-      <c r="D84" s="72"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="19">
-        <v>12750</v>
-      </c>
-      <c r="B85" s="1">
-        <v>-32.81</v>
-      </c>
-      <c r="C85">
-        <v>76</v>
-      </c>
-      <c r="D85" s="72"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="19">
-        <v>12800</v>
-      </c>
-      <c r="B86" s="1">
-        <v>-32.36</v>
-      </c>
-      <c r="C86" s="8">
-        <v>77</v>
-      </c>
-      <c r="D86" s="72"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="19">
-        <v>12850</v>
-      </c>
-      <c r="B87" s="1">
-        <v>-31.980404</v>
-      </c>
-      <c r="C87">
-        <v>78</v>
-      </c>
-      <c r="D87" s="72"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="19">
-        <v>12900</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-31.996115</v>
-      </c>
-      <c r="C88" s="8">
-        <v>79</v>
-      </c>
-      <c r="D88" s="72"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="19">
-        <v>12950</v>
-      </c>
-      <c r="B89" s="1">
-        <v>-31.340259</v>
-      </c>
-      <c r="C89">
-        <v>80</v>
-      </c>
-      <c r="D89" s="72"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="19">
-        <v>13000</v>
-      </c>
-      <c r="B90" s="1">
-        <v>-31.037016000000001</v>
-      </c>
-      <c r="C90" s="8">
-        <v>81</v>
-      </c>
-      <c r="D90" s="72"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="19">
-        <v>13050</v>
-      </c>
-      <c r="B91" s="1">
-        <v>-30.974346000000001</v>
-      </c>
-      <c r="C91">
-        <v>82</v>
-      </c>
-      <c r="D91" s="72"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="19">
-        <v>13100</v>
-      </c>
-      <c r="B92" s="1">
-        <v>-29.987418000000002</v>
-      </c>
-      <c r="C92" s="8">
-        <v>83</v>
-      </c>
-      <c r="D92" s="72"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="19">
-        <v>13150</v>
-      </c>
-      <c r="B93" s="1">
-        <v>-30.01</v>
-      </c>
-      <c r="C93">
-        <v>84</v>
-      </c>
-      <c r="D93" s="72"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="19">
-        <v>13200</v>
-      </c>
-      <c r="B94" s="1">
-        <v>-29.59</v>
-      </c>
-      <c r="C94" s="8">
-        <v>85</v>
-      </c>
-      <c r="D94" s="72"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="19">
-        <v>13250</v>
-      </c>
-      <c r="B95" s="1">
-        <v>-28.96</v>
-      </c>
-      <c r="C95">
-        <v>86</v>
-      </c>
-      <c r="D95" s="72"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="19">
-        <v>13300</v>
-      </c>
-      <c r="B96" s="1">
-        <v>-28.92</v>
-      </c>
-      <c r="C96" s="8">
-        <v>87</v>
-      </c>
-      <c r="D96" s="72"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="19">
-        <v>13350</v>
-      </c>
-      <c r="B97" s="1">
-        <v>-28.323529000000001</v>
-      </c>
-      <c r="C97">
-        <v>88</v>
-      </c>
-      <c r="D97" s="72"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="19">
-        <v>13400</v>
-      </c>
-      <c r="B98" s="1">
-        <v>-27.998946</v>
-      </c>
-      <c r="C98" s="8">
-        <v>89</v>
-      </c>
-      <c r="D98" s="72"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="19">
-        <v>13450</v>
-      </c>
-      <c r="B99" s="1">
-        <v>-27.321518999999999</v>
-      </c>
-      <c r="C99">
-        <v>90</v>
-      </c>
-      <c r="D99" s="72"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="19">
-        <v>13500</v>
-      </c>
-      <c r="B100" s="1">
-        <v>-26.974502000000001</v>
-      </c>
-      <c r="C100" s="8">
-        <v>91</v>
-      </c>
-      <c r="D100" s="72"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="19">
-        <v>13550</v>
-      </c>
-      <c r="B101" s="1">
-        <v>-27.000969000000001</v>
-      </c>
-      <c r="C101">
-        <v>92</v>
-      </c>
-      <c r="D101" s="72"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="19">
-        <v>13600</v>
-      </c>
-      <c r="B102" s="1">
-        <v>-26.78</v>
-      </c>
-      <c r="C102" s="8">
-        <v>93</v>
-      </c>
-      <c r="D102" s="72"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="19">
-        <v>13650</v>
-      </c>
-      <c r="B103" s="1">
-        <v>-26.06</v>
-      </c>
-      <c r="C103">
-        <v>94</v>
-      </c>
-      <c r="D103" s="72"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="19">
-        <v>13700</v>
-      </c>
-      <c r="B104" s="1">
-        <v>-25.973569000000001</v>
-      </c>
-      <c r="C104" s="8">
-        <v>95</v>
-      </c>
-      <c r="D104" s="72"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="19">
-        <v>13750</v>
-      </c>
-      <c r="B105" s="1">
-        <v>-25.949421999999998</v>
-      </c>
-      <c r="C105">
-        <v>96</v>
-      </c>
-      <c r="D105" s="72"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="19">
-        <v>13800</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-25.54</v>
-      </c>
-      <c r="C106" s="8">
-        <v>97</v>
-      </c>
-      <c r="D106" s="72"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="19">
-        <v>13850</v>
-      </c>
-      <c r="B107" s="1">
-        <v>-24.949442000000001</v>
-      </c>
-      <c r="C107">
-        <v>98</v>
-      </c>
-      <c r="D107" s="72"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="19">
-        <v>13900</v>
-      </c>
-      <c r="B108" s="1">
-        <v>-24.964697999999999</v>
-      </c>
-      <c r="C108" s="8">
-        <v>99</v>
-      </c>
-      <c r="D108" s="72"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="19">
-        <v>13950</v>
-      </c>
-      <c r="B109" s="1">
-        <v>-24.54</v>
-      </c>
-      <c r="C109">
-        <v>100</v>
-      </c>
-      <c r="D109" s="72"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="19">
-        <v>14000</v>
-      </c>
-      <c r="B110" s="1">
-        <v>-24.22</v>
-      </c>
-      <c r="C110" s="8">
-        <v>101</v>
-      </c>
-      <c r="D110" s="72"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="19">
-        <v>14050</v>
-      </c>
-      <c r="B111" s="1">
-        <v>-23.991171000000001</v>
-      </c>
-      <c r="C111">
-        <v>102</v>
-      </c>
-      <c r="D111" s="72"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="19">
-        <v>14100</v>
-      </c>
-      <c r="B112" s="1">
-        <v>-23.57</v>
-      </c>
-      <c r="C112" s="8">
-        <v>103</v>
-      </c>
-      <c r="D112" s="72"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="19">
-        <v>14150</v>
-      </c>
-      <c r="B113" s="1">
-        <v>-23.32</v>
-      </c>
-      <c r="C113">
-        <v>104</v>
-      </c>
-      <c r="D113" s="72"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="19">
-        <v>14200</v>
-      </c>
-      <c r="B114" s="1">
-        <v>-23.002275999999998</v>
-      </c>
-      <c r="C114" s="8">
-        <v>105</v>
-      </c>
-      <c r="D114" s="72"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="19">
-        <v>14250</v>
-      </c>
-      <c r="B115" s="1">
-        <v>-22.7</v>
-      </c>
-      <c r="C115">
-        <v>106</v>
-      </c>
-      <c r="D115" s="72"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="19">
-        <v>14300</v>
-      </c>
-      <c r="B116" s="1">
-        <v>-22.49</v>
-      </c>
-      <c r="C116" s="8">
-        <v>107</v>
-      </c>
-      <c r="D116" s="72"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="19">
-        <v>14350</v>
-      </c>
-      <c r="B117" s="1">
-        <v>-22.14</v>
-      </c>
-      <c r="C117">
-        <v>108</v>
-      </c>
-      <c r="D117" s="72"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="19">
-        <v>14400</v>
-      </c>
-      <c r="B118" s="1">
-        <v>-21.83</v>
-      </c>
-      <c r="C118" s="8">
-        <v>109</v>
-      </c>
-      <c r="D118" s="72"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="19">
-        <v>14450</v>
-      </c>
-      <c r="B119" s="1">
-        <v>-21.65</v>
-      </c>
-      <c r="C119">
-        <v>110</v>
-      </c>
-      <c r="D119" s="72"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="19">
-        <v>14500</v>
-      </c>
-      <c r="B120" s="1">
-        <v>-21.22</v>
-      </c>
-      <c r="C120" s="8">
-        <v>111</v>
-      </c>
-      <c r="D120" s="72"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="19">
-        <v>14550</v>
-      </c>
-      <c r="B121" s="1">
-        <v>-21.09</v>
-      </c>
-      <c r="C121">
-        <v>112</v>
-      </c>
-      <c r="D121" s="72"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="19">
-        <v>14600</v>
-      </c>
-      <c r="B122" s="1">
-        <v>-20.76</v>
-      </c>
-      <c r="C122" s="8">
-        <v>113</v>
-      </c>
-      <c r="D122" s="72"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="19">
-        <v>14650</v>
-      </c>
-      <c r="B123" s="1">
-        <v>-20.53</v>
-      </c>
-      <c r="C123">
-        <v>114</v>
-      </c>
-      <c r="D123" s="72"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="19">
-        <v>14700</v>
-      </c>
-      <c r="B124" s="1">
-        <v>-20.36</v>
-      </c>
-      <c r="C124" s="8">
-        <v>115</v>
-      </c>
-      <c r="D124" s="72"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="19">
-        <v>14750</v>
-      </c>
-      <c r="B125" s="1">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="C125">
-        <v>116</v>
-      </c>
-      <c r="D125" s="72"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="19">
-        <v>14800</v>
-      </c>
-      <c r="B126" s="1">
-        <v>-19.63</v>
-      </c>
-      <c r="C126" s="8">
-        <v>117</v>
-      </c>
-      <c r="D126" s="72"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="19">
-        <v>14850</v>
-      </c>
-      <c r="B127" s="1">
-        <v>-19.45</v>
-      </c>
-      <c r="C127">
-        <v>118</v>
-      </c>
-      <c r="D127" s="72"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="19">
-        <v>14900</v>
-      </c>
-      <c r="B128" s="1">
-        <v>-19.14</v>
-      </c>
-      <c r="C128" s="8">
-        <v>119</v>
-      </c>
-      <c r="D128" s="72"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="19">
-        <v>14950</v>
-      </c>
-      <c r="B129" s="1">
-        <v>-18.96</v>
-      </c>
-      <c r="C129">
-        <v>120</v>
-      </c>
-      <c r="D129" s="72"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="19">
-        <v>15000</v>
-      </c>
-      <c r="B130" s="1">
-        <v>-18.66</v>
-      </c>
-      <c r="C130" s="8">
-        <v>121</v>
-      </c>
-      <c r="D130" s="72"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="19">
-        <v>15050</v>
-      </c>
-      <c r="B131" s="1">
-        <v>-18.55</v>
-      </c>
-      <c r="C131">
-        <v>122</v>
-      </c>
-      <c r="D131" s="72"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="19">
-        <v>15100</v>
-      </c>
-      <c r="B132" s="1">
-        <v>-18.09</v>
-      </c>
-      <c r="C132" s="8">
-        <v>123</v>
-      </c>
-      <c r="D132" s="72"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="19">
-        <v>15150</v>
-      </c>
-      <c r="B133" s="1">
-        <v>-18.11</v>
-      </c>
-      <c r="C133">
-        <v>124</v>
-      </c>
-      <c r="D133" s="72"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="19">
-        <v>15200</v>
-      </c>
-      <c r="B134" s="1">
-        <v>-17.7</v>
-      </c>
-      <c r="C134" s="8">
-        <v>125</v>
-      </c>
-      <c r="D134" s="72"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="19">
-        <v>15250</v>
-      </c>
-      <c r="B135" s="1">
-        <v>-17.45</v>
-      </c>
-      <c r="C135">
-        <v>126</v>
-      </c>
-      <c r="D135" s="72"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="19">
-        <v>15300</v>
-      </c>
-      <c r="B136" s="1">
-        <v>-17.25</v>
-      </c>
-      <c r="C136" s="8">
-        <v>127</v>
-      </c>
-      <c r="D136" s="72"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="19">
-        <v>15350</v>
-      </c>
-      <c r="B137" s="1">
-        <v>-17.03</v>
-      </c>
-      <c r="C137">
-        <v>128</v>
-      </c>
-      <c r="D137" s="72"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="19">
-        <v>15400</v>
-      </c>
-      <c r="B138" s="1">
-        <v>-16.73</v>
-      </c>
-      <c r="C138" s="8">
-        <v>129</v>
-      </c>
-      <c r="D138" s="72"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="19">
-        <v>15450</v>
-      </c>
-      <c r="B139" s="1">
-        <v>-16.47</v>
-      </c>
-      <c r="C139">
-        <v>130</v>
-      </c>
-      <c r="D139" s="72"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="39">
-        <v>15500</v>
-      </c>
-      <c r="B140" s="40">
-        <v>-16.350000000000001</v>
-      </c>
-      <c r="C140" s="8">
-        <v>131</v>
-      </c>
-      <c r="D140" s="72"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="39">
-        <v>15550</v>
-      </c>
-      <c r="B141" s="40">
-        <v>-15.94</v>
-      </c>
-      <c r="C141" s="8">
-        <v>132</v>
-      </c>
-      <c r="D141" s="72"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="39">
-        <v>15600</v>
-      </c>
-      <c r="B142" s="40">
-        <v>-15.57</v>
-      </c>
-      <c r="C142">
-        <v>133</v>
-      </c>
-      <c r="D142" s="72"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="39">
-        <v>15650</v>
-      </c>
-      <c r="B143" s="40">
-        <v>-15.43</v>
-      </c>
-      <c r="C143" s="8">
-        <v>134</v>
-      </c>
-      <c r="D143" s="72"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="39">
-        <v>15700</v>
-      </c>
-      <c r="B144" s="40">
-        <v>-15.3</v>
-      </c>
-      <c r="C144" s="8">
-        <v>135</v>
-      </c>
-      <c r="D144" s="72"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A145" s="39">
-        <v>15750</v>
-      </c>
-      <c r="B145" s="40">
-        <v>-15.06</v>
-      </c>
-      <c r="C145">
-        <v>136</v>
-      </c>
-      <c r="D145" s="72"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A146" s="39">
-        <v>15800</v>
-      </c>
-      <c r="B146" s="40">
-        <v>-14.88</v>
-      </c>
-      <c r="C146" s="8">
-        <v>137</v>
-      </c>
-      <c r="D146" s="72"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A147" s="39">
-        <v>15850</v>
-      </c>
-      <c r="B147" s="40">
-        <v>-14.6</v>
-      </c>
-      <c r="C147" s="8">
-        <v>138</v>
-      </c>
-      <c r="D147" s="72"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148" s="39">
-        <v>15900</v>
-      </c>
-      <c r="B148" s="40">
-        <v>-14.27</v>
-      </c>
-      <c r="C148">
-        <v>139</v>
-      </c>
-      <c r="D148" s="72"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" s="39">
-        <v>15950</v>
-      </c>
-      <c r="B149" s="40">
-        <v>-14.2</v>
-      </c>
-      <c r="C149" s="8">
-        <v>140</v>
-      </c>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A150" s="39">
-        <v>16000</v>
-      </c>
-      <c r="C150" s="8">
-        <v>141</v>
-      </c>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A151" s="39">
-        <v>16050</v>
-      </c>
-      <c r="B151" s="1">
-        <v>-13.83</v>
-      </c>
-      <c r="C151">
-        <v>142</v>
-      </c>
-      <c r="D151" s="19">
-        <v>12</v>
-      </c>
-      <c r="E151" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A152" s="39">
-        <v>16300</v>
-      </c>
-      <c r="B152" s="1">
-        <v>-12.57</v>
-      </c>
-      <c r="D152" s="19">
-        <v>17</v>
-      </c>
-      <c r="E152" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A153" s="39">
-        <v>16500</v>
-      </c>
-      <c r="B153" s="1">
-        <v>-11.72</v>
-      </c>
-      <c r="D153" s="19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" s="39">
-        <v>16550</v>
-      </c>
-      <c r="D154" s="19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" s="39">
-        <v>16600</v>
-      </c>
-      <c r="D155" s="19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A156" s="39">
-        <v>16650</v>
-      </c>
-      <c r="D156" s="19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" s="39">
-        <v>16700</v>
-      </c>
-      <c r="D157" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A158" s="39">
-        <v>16750</v>
-      </c>
-      <c r="D158" s="19">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A159" s="39">
-        <v>16800</v>
-      </c>
-      <c r="B159" s="1">
-        <v>-10.58</v>
-      </c>
-      <c r="D159" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A160" s="39">
-        <v>16850</v>
-      </c>
-      <c r="D160" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="39">
-        <v>16900</v>
-      </c>
-      <c r="D161" s="19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="39">
-        <v>16950</v>
-      </c>
-      <c r="D162" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="39">
-        <v>17000</v>
-      </c>
-      <c r="D163" s="19">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="39">
-        <v>17050</v>
-      </c>
-      <c r="D164" s="19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="39">
-        <v>17100</v>
-      </c>
-      <c r="B165" s="1">
-        <v>-9.52</v>
-      </c>
-      <c r="D165" s="19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="39">
-        <v>17150</v>
-      </c>
-      <c r="D166" s="19">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="39">
-        <v>17200</v>
-      </c>
-      <c r="D167" s="19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="39">
-        <v>17250</v>
-      </c>
-      <c r="B168" s="1">
-        <v>-8.85</v>
-      </c>
-      <c r="D168" s="19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="39">
-        <v>17300</v>
-      </c>
-      <c r="D169" s="19">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="39">
-        <v>17350</v>
-      </c>
-      <c r="D170" s="19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="39">
-        <v>17400</v>
-      </c>
-      <c r="D171" s="19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="39">
-        <v>17450</v>
-      </c>
-      <c r="D172" s="19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="39">
-        <v>17500</v>
-      </c>
-      <c r="B173" s="1">
-        <v>-7.86</v>
-      </c>
-      <c r="D173" s="19">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="39">
-        <v>17550</v>
-      </c>
-      <c r="D174" s="19">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="39">
-        <v>17600</v>
-      </c>
-      <c r="D175" s="19">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="39">
-        <v>17650</v>
-      </c>
-      <c r="D176" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="39">
-        <v>17700</v>
-      </c>
-      <c r="D177" s="19">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="39">
-        <v>17750</v>
-      </c>
-      <c r="B178" s="1">
-        <v>-6.98</v>
-      </c>
-      <c r="D178" s="19">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="39">
-        <v>17800</v>
-      </c>
-      <c r="D179" s="19">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="39">
-        <v>17850</v>
-      </c>
-      <c r="D180" s="19">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="39">
-        <v>17900</v>
-      </c>
-      <c r="D181" s="19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="39">
-        <v>17950</v>
-      </c>
-      <c r="D182" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="19">
-        <v>18000</v>
-      </c>
-      <c r="B183" s="1">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="19">
-        <v>18050</v>
-      </c>
-      <c r="B184" s="1">
-        <v>-6.02</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="19">
-        <v>18100</v>
-      </c>
-      <c r="B185" s="1">
-        <v>-5.91</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186" s="19">
-        <v>18150</v>
-      </c>
-      <c r="B186" s="1">
-        <v>-5.61</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="19">
-        <v>18200</v>
-      </c>
-      <c r="B187" s="1">
-        <v>-5.55</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="19">
-        <v>18250</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="19">
-        <v>18300</v>
-      </c>
-      <c r="B189" s="1">
-        <v>-5.15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="19">
-        <v>18350</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="19">
-        <v>18400</v>
-      </c>
-      <c r="B191" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="19">
-        <v>18450</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193" s="19">
-        <v>18500</v>
-      </c>
-      <c r="B193" s="1">
-        <v>-4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A194" s="19">
-        <v>18550</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195" s="19">
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196" s="19">
-        <v>18650</v>
-      </c>
-      <c r="B196" s="1">
-        <v>-3.85</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A197" s="19">
-        <v>18700</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198" s="19">
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A199" s="19">
-        <v>18800</v>
-      </c>
-      <c r="B199" s="1">
-        <v>-3.53</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A200" s="19">
-        <v>18850</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A201" s="19">
-        <v>18900</v>
-      </c>
-      <c r="B201" s="1">
-        <v>-3.32</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A202" s="19">
-        <v>18950</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A203" s="19">
-        <v>19000</v>
-      </c>
-      <c r="B203" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A204" s="19">
-        <v>19050</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A205" s="19">
-        <v>19100</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A206" s="19">
-        <v>19150</v>
-      </c>
-      <c r="B206" s="1">
-        <v>-2.87</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A207" s="19">
-        <v>19200</v>
-      </c>
-      <c r="B207" s="1">
-        <v>-2.31</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A208" s="19">
-        <v>19250</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" s="19">
-        <v>19300</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A210" s="19">
-        <v>19350</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A211" s="19">
-        <v>19400</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A212" s="19">
-        <v>19450</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" s="19">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A214" s="19">
-        <v>19550</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A215" s="19">
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A216" s="19">
-        <v>19650</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A217" s="19">
-        <v>19700</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="19">
-        <v>19750</v>
-      </c>
-      <c r="C218"/>
-      <c r="D218"/>
-      <c r="E218"/>
-      <c r="F218"/>
-      <c r="G218"/>
-    </row>
-    <row r="219" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="19">
-        <v>19800</v>
-      </c>
-      <c r="C219"/>
-      <c r="D219"/>
-      <c r="E219"/>
-      <c r="F219"/>
-      <c r="G219"/>
-    </row>
-    <row r="220" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="19">
-        <v>19850</v>
-      </c>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220"/>
-      <c r="G220"/>
-    </row>
-    <row r="221" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="19">
-        <v>19900</v>
-      </c>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221"/>
-      <c r="G221"/>
-    </row>
-    <row r="222" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="19">
-        <v>19950</v>
-      </c>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222"/>
-      <c r="G222"/>
-    </row>
-    <row r="223" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C223"/>
-      <c r="D223"/>
-      <c r="E223"/>
-      <c r="F223"/>
-      <c r="G223"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:D17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="D27:D148"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>